--- a/survey_responses.xlsx
+++ b/survey_responses.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6722" uniqueCount="2514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6722" uniqueCount="2515">
   <si>
     <t xml:space="preserve">Submitted responses</t>
   </si>
@@ -2023,7 +2023,7 @@
     <t xml:space="preserve">BioCyc;BioModels;BioNumbers;BRENDA;GEO;Pax-DB;Reactome;SABIO-RK</t>
   </si>
   <si>
-    <t xml:space="preserve">Inadequate verification tools;Inadequate standards;Incompatible models;Inadequate community forums;Inadequate tools for assesing the uncertainty of model predictions</t>
+    <t xml:space="preserve">Inadequate verification tools;Inadequate standards;Incompatible models;Inadequate community forums;Inadequate tools for assessing the uncertainty of model predictions</t>
   </si>
   <si>
     <t xml:space="preserve">2017/07/26 11:44:29 AM GMT+2</t>
@@ -5555,6 +5555,9 @@
     <t xml:space="preserve">Computer science;Multicellular modeling;Synthetic biology</t>
   </si>
   <si>
+    <t xml:space="preserve">BioNumbers;Google;Google Scholar;BioBricks</t>
+  </si>
+  <si>
     <t xml:space="preserve">C / C++;GRO</t>
   </si>
   <si>
@@ -5756,7 +5759,7 @@
     <t xml:space="preserve">C, C++;Java;R</t>
   </si>
   <si>
-    <t xml:space="preserve">Metabolism;Transcription;Circadian rhythyms</t>
+    <t xml:space="preserve">Metabolism;Transcription;Circadian rhythms</t>
   </si>
   <si>
     <t xml:space="preserve">BioModels;BioNumbers;BRENDA;Physiome Model Repository;GEO;Google;Google Scholar;KEGG;Pathway Commons;PubMed;Reactome;SABIO-RK;UniProt</t>
@@ -7867,11 +7870,11 @@
   <dimension ref="A1:AT216"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="P3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B125" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="P1" activeCellId="0" sqref="P1"/>
-      <selection pane="bottomLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="AD28" activeCellId="0" sqref="AD28"/>
+      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A125" activeCellId="0" sqref="A125"/>
+      <selection pane="bottomRight" activeCell="I139" activeCellId="0" sqref="I139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -23298,7 +23301,7 @@
         <v>275</v>
       </c>
       <c r="AH142" s="3" t="s">
-        <v>1828</v>
+        <v>1840</v>
       </c>
       <c r="AI142" s="3" t="s">
         <v>1829</v>
@@ -23313,16 +23316,16 @@
         <v>131</v>
       </c>
       <c r="AM142" s="3" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="AN142" s="3" t="s">
         <v>272</v>
       </c>
       <c r="AO142" s="3" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="AP142" s="3" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="AQ142" s="0"/>
       <c r="AR142" s="3" t="s">
@@ -23335,11 +23338,11 @@
     </row>
     <row r="143" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="1" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="B143" s="0"/>
       <c r="C143" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="E143" s="4" t="s">
         <v>181</v>
@@ -23354,13 +23357,13 @@
         <v>62</v>
       </c>
       <c r="I143" s="4" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="J143" s="4" t="s">
         <v>317</v>
       </c>
       <c r="K143" s="4" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="L143" s="4" t="s">
         <v>35</v>
@@ -23388,7 +23391,7 @@
       <c r="Y143" s="0"/>
       <c r="AA143" s="0"/>
       <c r="AB143" s="3" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="AC143" s="0"/>
       <c r="AD143" s="3" t="s">
@@ -23404,13 +23407,13 @@
         <v>81</v>
       </c>
       <c r="AH143" s="3" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="AI143" s="3" t="s">
         <v>317</v>
       </c>
       <c r="AJ143" s="3" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="AK143" s="3" t="s">
         <v>35</v>
@@ -23435,11 +23438,11 @@
     </row>
     <row r="144" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="1" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="B144" s="0"/>
       <c r="C144" s="3" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="E144" s="4" t="s">
         <v>110</v>
@@ -23454,16 +23457,16 @@
         <v>941</v>
       </c>
       <c r="I144" s="4" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="J144" s="4" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="K144" s="4" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="L144" s="4" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="M144" s="4" t="s">
         <v>258</v>
@@ -23476,23 +23479,23 @@
         <v>260</v>
       </c>
       <c r="Q144" s="4" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="R144" s="4" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="S144" s="4" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="T144" s="4" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="U144" s="0"/>
       <c r="V144" s="4" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="W144" s="4" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="X144" s="4" t="s">
         <v>196</v>
@@ -23502,7 +23505,7 @@
         <v>46</v>
       </c>
       <c r="AB144" s="3" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="AC144" s="3" t="s">
         <v>47</v>
@@ -23520,10 +23523,10 @@
         <v>229</v>
       </c>
       <c r="AH144" s="3" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="AI144" s="3" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="AJ144" s="3" t="s">
         <v>550</v>
@@ -23542,7 +23545,7 @@
         <v>264</v>
       </c>
       <c r="AP144" s="3" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="AR144" s="3" t="s">
         <v>57</v>
@@ -23554,7 +23557,7 @@
     </row>
     <row r="145" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="1" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="B145" s="0"/>
       <c r="C145" s="3" t="s">
@@ -23573,7 +23576,7 @@
         <v>268</v>
       </c>
       <c r="I145" s="4" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="J145" s="4" t="s">
         <v>33</v>
@@ -23591,23 +23594,23 @@
         <v>321</v>
       </c>
       <c r="Q145" s="4" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="R145" s="0"/>
       <c r="S145" s="0"/>
       <c r="T145" s="0"/>
       <c r="U145" s="0"/>
       <c r="V145" s="4" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="W145" s="4" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="X145" s="4" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="Y145" s="5" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="AA145" s="2" t="s">
         <v>46</v>
@@ -23631,7 +23634,7 @@
         <v>275</v>
       </c>
       <c r="AH145" s="3" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="AI145" s="3" t="s">
         <v>33</v>
@@ -23649,7 +23652,7 @@
         <v>331</v>
       </c>
       <c r="AP145" s="3" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="AQ145" s="0"/>
       <c r="AR145" s="0"/>
@@ -23658,7 +23661,7 @@
     </row>
     <row r="146" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A146" s="1" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="B146" s="0"/>
       <c r="C146" s="3" t="s">
@@ -23674,7 +23677,7 @@
         <v>489</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="I146" s="4" t="s">
         <v>1168</v>
@@ -23683,7 +23686,7 @@
         <v>208</v>
       </c>
       <c r="K146" s="4" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="L146" s="4" t="s">
         <v>748</v>
@@ -23695,26 +23698,26 @@
         <v>428</v>
       </c>
       <c r="O146" s="4" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="P146" s="4" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="Q146" s="4" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="R146" s="0"/>
       <c r="S146" s="0"/>
       <c r="T146" s="0"/>
       <c r="U146" s="0"/>
       <c r="V146" s="4" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="W146" s="4" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="X146" s="4" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="Y146" s="0"/>
       <c r="AA146" s="2" t="s">
@@ -23736,7 +23739,7 @@
         <v>497</v>
       </c>
       <c r="AG146" s="3" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="AH146" s="3" t="s">
         <v>1168</v>
@@ -23760,10 +23763,10 @@
         <v>878</v>
       </c>
       <c r="AO146" s="3" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="AP146" s="3" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="AQ146" s="0"/>
       <c r="AR146" s="0"/>
@@ -23772,11 +23775,11 @@
     </row>
     <row r="147" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A147" s="1" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="B147" s="0"/>
       <c r="C147" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="E147" s="4" t="s">
         <v>59</v>
@@ -23791,19 +23794,19 @@
         <v>140</v>
       </c>
       <c r="I147" s="4" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="J147" s="4" t="s">
         <v>296</v>
       </c>
       <c r="K147" s="4" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="L147" s="4" t="s">
         <v>35</v>
       </c>
       <c r="M147" s="4" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="N147" s="4" t="s">
         <v>922</v>
@@ -23825,7 +23828,7 @@
       <c r="Y147" s="0"/>
       <c r="AA147" s="0"/>
       <c r="AB147" s="3" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="AC147" s="0"/>
       <c r="AD147" s="3" t="s">
@@ -23841,19 +23844,19 @@
         <v>152</v>
       </c>
       <c r="AH147" s="3" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="AI147" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AJ147" s="3" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="AK147" s="3" t="s">
         <v>35</v>
       </c>
       <c r="AL147" s="3" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="AM147" s="3" t="s">
         <v>930</v>
@@ -23872,11 +23875,11 @@
     </row>
     <row r="148" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A148" s="1" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="B148" s="0"/>
       <c r="C148" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="E148" s="4" t="s">
         <v>181</v>
@@ -23891,7 +23894,7 @@
         <v>220</v>
       </c>
       <c r="I148" s="4" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="J148" s="4" t="s">
         <v>458</v>
@@ -23925,7 +23928,7 @@
       <c r="Y148" s="0"/>
       <c r="AA148" s="0"/>
       <c r="AB148" s="3" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="AC148" s="0"/>
       <c r="AD148" s="3" t="s">
@@ -23941,7 +23944,7 @@
         <v>229</v>
       </c>
       <c r="AH148" s="3" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="AI148" s="3" t="s">
         <v>458</v>
@@ -23972,7 +23975,7 @@
     </row>
     <row r="149" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A149" s="1" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="B149" s="0"/>
       <c r="C149" s="3" t="s">
@@ -23988,16 +23991,16 @@
         <v>92</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="I149" s="4" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="J149" s="4" t="s">
         <v>317</v>
       </c>
       <c r="K149" s="4" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="L149" s="4" t="s">
         <v>35</v>
@@ -24009,20 +24012,20 @@
         <v>282</v>
       </c>
       <c r="O149" s="4" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="P149" s="4" t="s">
         <v>531</v>
       </c>
       <c r="Q149" s="4" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="R149" s="0"/>
       <c r="S149" s="4" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="T149" s="4" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="U149" s="0"/>
       <c r="V149" s="0"/>
@@ -24047,13 +24050,13 @@
         <v>1516</v>
       </c>
       <c r="AH149" s="3" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="AI149" s="3" t="s">
         <v>317</v>
       </c>
       <c r="AJ149" s="3" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="AK149" s="3" t="s">
         <v>35</v>
@@ -24065,13 +24068,13 @@
         <v>282</v>
       </c>
       <c r="AN149" s="3" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="AO149" s="3" t="s">
         <v>535</v>
       </c>
       <c r="AP149" s="3" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="AQ149" s="0"/>
       <c r="AR149" s="3" t="s">
@@ -24084,7 +24087,7 @@
     </row>
     <row r="150" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A150" s="1" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="B150" s="0"/>
       <c r="C150" s="3" t="s">
@@ -24094,7 +24097,7 @@
         <v>181</v>
       </c>
       <c r="F150" s="4" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="G150" s="4" t="s">
         <v>206</v>
@@ -24103,7 +24106,7 @@
         <v>140</v>
       </c>
       <c r="I150" s="4" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="J150" s="4" t="s">
         <v>458</v>
@@ -24118,7 +24121,7 @@
         <v>1084</v>
       </c>
       <c r="N150" s="4" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="O150" s="0"/>
       <c r="P150" s="4" t="s">
@@ -24144,7 +24147,7 @@
         <v>181</v>
       </c>
       <c r="AE150" s="3" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="AF150" s="3" t="s">
         <v>80</v>
@@ -24153,7 +24156,7 @@
         <v>152</v>
       </c>
       <c r="AH150" s="3" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="AI150" s="3" t="s">
         <v>458</v>
@@ -24168,7 +24171,7 @@
         <v>1093</v>
       </c>
       <c r="AM150" s="3" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="AN150" s="0"/>
       <c r="AO150" s="3" t="s">
@@ -24184,7 +24187,7 @@
     </row>
     <row r="151" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A151" s="1" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="B151" s="0"/>
       <c r="C151" s="3" t="s">
@@ -24206,10 +24209,10 @@
         <v>1011</v>
       </c>
       <c r="J151" s="4" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="K151" s="4" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="L151" s="4" t="s">
         <v>144</v>
@@ -24225,7 +24228,7 @@
         <v>584</v>
       </c>
       <c r="Q151" s="4" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="R151" s="4" t="s">
         <v>532</v>
@@ -24258,10 +24261,10 @@
         <v>1011</v>
       </c>
       <c r="AI151" s="3" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="AJ151" s="3" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="AK151" s="3" t="s">
         <v>144</v>
@@ -24277,7 +24280,7 @@
         <v>594</v>
       </c>
       <c r="AP151" s="3" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="AQ151" s="3" t="s">
         <v>178</v>
@@ -24288,7 +24291,7 @@
     </row>
     <row r="152" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A152" s="1" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="B152" s="0"/>
       <c r="C152" s="3" t="s">
@@ -24304,16 +24307,16 @@
         <v>206</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="I152" s="4" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="J152" s="4" t="s">
         <v>442</v>
       </c>
       <c r="K152" s="4" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="L152" s="4" t="s">
         <v>35</v>
@@ -24329,20 +24332,20 @@
         <v>1130</v>
       </c>
       <c r="Q152" s="4" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="R152" s="0"/>
       <c r="S152" s="0"/>
       <c r="T152" s="0"/>
       <c r="U152" s="0"/>
       <c r="V152" s="4" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="W152" s="4" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="X152" s="4" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="Y152" s="0"/>
       <c r="AA152" s="2" t="s">
@@ -24367,7 +24370,7 @@
         <v>263</v>
       </c>
       <c r="AH152" s="3" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="AI152" s="3" t="s">
         <v>442</v>
@@ -24389,7 +24392,7 @@
         <v>1136</v>
       </c>
       <c r="AP152" s="3" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="AQ152" s="0"/>
       <c r="AR152" s="0"/>
@@ -24398,11 +24401,11 @@
     </row>
     <row r="153" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A153" s="1" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="B153" s="0"/>
       <c r="C153" s="3" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="E153" s="4" t="s">
         <v>181</v>
@@ -24417,7 +24420,7 @@
         <v>337</v>
       </c>
       <c r="I153" s="4" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="J153" s="4" t="s">
         <v>317</v>
@@ -24435,7 +24438,7 @@
         <v>272</v>
       </c>
       <c r="O153" s="4" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="P153" s="4" t="s">
         <v>1589</v>
@@ -24453,7 +24456,7 @@
       <c r="Y153" s="0"/>
       <c r="AA153" s="0"/>
       <c r="AB153" s="3" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="AC153" s="0"/>
       <c r="AD153" s="3" t="s">
@@ -24469,7 +24472,7 @@
         <v>343</v>
       </c>
       <c r="AH153" s="3" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="AI153" s="3" t="s">
         <v>317</v>
@@ -24487,7 +24490,7 @@
         <v>272</v>
       </c>
       <c r="AN153" s="3" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="AO153" s="3" t="s">
         <v>1601</v>
@@ -24502,41 +24505,41 @@
     </row>
     <row r="154" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A154" s="1" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="B154" s="0"/>
       <c r="C154" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="E154" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="G154" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="I154" s="4" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="J154" s="4" t="s">
         <v>1725</v>
       </c>
       <c r="K154" s="4" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="L154" s="4" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="M154" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N154" s="4" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="O154" s="0"/>
       <c r="P154" s="4" t="s">
@@ -24555,14 +24558,14 @@
       <c r="Y154" s="0"/>
       <c r="AA154" s="0"/>
       <c r="AB154" s="3" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="AC154" s="0"/>
       <c r="AD154" s="3" t="s">
         <v>181</v>
       </c>
       <c r="AE154" s="3" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="AF154" s="3" t="s">
         <v>49</v>
@@ -24583,7 +24586,7 @@
         <v>700</v>
       </c>
       <c r="AM154" s="3" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="AN154" s="0"/>
       <c r="AO154" s="3" t="s">
@@ -24599,7 +24602,7 @@
     </row>
     <row r="155" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A155" s="1" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="B155" s="0"/>
       <c r="C155" s="3" t="s">
@@ -24615,7 +24618,7 @@
         <v>206</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>1739</v>
@@ -24624,7 +24627,7 @@
         <v>208</v>
       </c>
       <c r="K155" s="4" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="L155" s="4" t="s">
         <v>1288</v>
@@ -24637,14 +24640,14 @@
       </c>
       <c r="O155" s="0"/>
       <c r="P155" s="4" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="Q155" s="4" t="s">
         <v>40</v>
       </c>
       <c r="R155" s="0"/>
       <c r="S155" s="4" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="T155" s="0"/>
       <c r="U155" s="0"/>
@@ -24652,7 +24655,7 @@
       <c r="W155" s="0"/>
       <c r="X155" s="0"/>
       <c r="Y155" s="5" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="AA155" s="0"/>
       <c r="AB155" s="3" t="s">
@@ -24678,7 +24681,7 @@
         <v>208</v>
       </c>
       <c r="AJ155" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="AK155" s="3" t="s">
         <v>1288</v>
@@ -24691,7 +24694,7 @@
       </c>
       <c r="AN155" s="0"/>
       <c r="AO155" s="3" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="AP155" s="3" t="s">
         <v>56</v>
@@ -24705,11 +24708,11 @@
     </row>
     <row r="156" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A156" s="1" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="B156" s="0"/>
       <c r="C156" s="3" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="E156" s="4" t="s">
         <v>181</v>
@@ -24724,7 +24727,7 @@
         <v>685</v>
       </c>
       <c r="I156" s="4" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="J156" s="4" t="s">
         <v>458</v>
@@ -24753,20 +24756,20 @@
       <c r="T156" s="0"/>
       <c r="U156" s="0"/>
       <c r="V156" s="4" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="W156" s="4" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="X156" s="4" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="Y156" s="0"/>
       <c r="AA156" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB156" s="3" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="AC156" s="3" t="s">
         <v>645</v>
@@ -24784,7 +24787,7 @@
         <v>343</v>
       </c>
       <c r="AH156" s="3" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="AI156" s="3" t="s">
         <v>458</v>
@@ -24815,7 +24818,7 @@
     </row>
     <row r="157" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A157" s="1" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="B157" s="0"/>
       <c r="C157" s="3" t="s">
@@ -24834,7 +24837,7 @@
         <v>1081</v>
       </c>
       <c r="I157" s="4" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="J157" s="4" t="s">
         <v>33</v>
@@ -24851,7 +24854,7 @@
       </c>
       <c r="O157" s="0"/>
       <c r="P157" s="4" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="Q157" s="4" t="s">
         <v>120</v>
@@ -24882,7 +24885,7 @@
         <v>1091</v>
       </c>
       <c r="AH157" s="3" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="AI157" s="3" t="s">
         <v>33</v>
@@ -24899,7 +24902,7 @@
       </c>
       <c r="AN157" s="0"/>
       <c r="AO157" s="3" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="AP157" s="3" t="s">
         <v>135</v>
@@ -24911,7 +24914,7 @@
     </row>
     <row r="158" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A158" s="1" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="B158" s="0"/>
       <c r="C158" s="3" t="s">
@@ -24945,7 +24948,7 @@
       </c>
       <c r="O158" s="0"/>
       <c r="P158" s="4" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="Q158" s="4" t="s">
         <v>40</v>
@@ -24991,7 +24994,7 @@
       </c>
       <c r="AN158" s="0"/>
       <c r="AO158" s="3" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="AP158" s="3" t="s">
         <v>56</v>
@@ -25003,17 +25006,17 @@
     </row>
     <row r="159" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A159" s="1" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="B159" s="0"/>
       <c r="C159" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="E159" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F159" s="4" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="G159" s="4" t="s">
         <v>92</v>
@@ -25022,16 +25025,16 @@
         <v>254</v>
       </c>
       <c r="I159" s="4" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="J159" s="4" t="s">
         <v>1157</v>
       </c>
       <c r="K159" s="4" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="L159" s="4" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="M159" s="4" t="s">
         <v>690</v>
@@ -25044,33 +25047,33 @@
         <v>629</v>
       </c>
       <c r="Q159" s="4" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="R159" s="0"/>
       <c r="S159" s="0"/>
       <c r="T159" s="4" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="U159" s="4" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="V159" s="4" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="W159" s="4" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="X159" s="4" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="Y159" s="5" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="AA159" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB159" s="3" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="AC159" s="3" t="s">
         <v>47</v>
@@ -25079,7 +25082,7 @@
         <v>181</v>
       </c>
       <c r="AE159" s="3" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="AF159" s="3" t="s">
         <v>80</v>
@@ -25088,13 +25091,13 @@
         <v>254</v>
       </c>
       <c r="AH159" s="3" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="AI159" s="3" t="s">
         <v>1157</v>
       </c>
       <c r="AJ159" s="3" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="AK159" s="3" t="s">
         <v>198</v>
@@ -25110,7 +25113,7 @@
         <v>632</v>
       </c>
       <c r="AP159" s="3" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="AQ159" s="0"/>
       <c r="AR159" s="0"/>
@@ -25118,22 +25121,22 @@
         <v>334</v>
       </c>
       <c r="AT159" s="5" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="160" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A160" s="1" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="B160" s="0"/>
       <c r="C160" s="3" t="s">
         <v>1271</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="G160" s="4" t="s">
         <v>314</v>
@@ -25142,13 +25145,13 @@
         <v>140</v>
       </c>
       <c r="I160" s="4" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="J160" s="4" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="K160" s="4" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="L160" s="0"/>
       <c r="M160" s="4" t="s">
@@ -25162,22 +25165,22 @@
         <v>146</v>
       </c>
       <c r="Q160" s="4" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="R160" s="4" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="S160" s="0"/>
       <c r="T160" s="0"/>
       <c r="U160" s="0"/>
       <c r="V160" s="4" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="W160" s="4" t="s">
         <v>149</v>
       </c>
       <c r="X160" s="4" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="Y160" s="0"/>
       <c r="AA160" s="2" t="s">
@@ -25193,7 +25196,7 @@
         <v>110</v>
       </c>
       <c r="AE160" s="3" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="AF160" s="3" t="s">
         <v>49</v>
@@ -25202,10 +25205,10 @@
         <v>152</v>
       </c>
       <c r="AH160" s="3" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="AI160" s="3" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="AJ160" s="3" t="s">
         <v>550</v>
@@ -25225,7 +25228,7 @@
         <v>1546</v>
       </c>
       <c r="AQ160" s="3" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="AR160" s="0"/>
       <c r="AS160" s="0"/>
@@ -25233,14 +25236,14 @@
     </row>
     <row r="161" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A161" s="1" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="B161" s="0"/>
       <c r="C161" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="E161" s="4" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="F161" s="4" t="s">
         <v>252</v>
@@ -25249,19 +25252,19 @@
         <v>489</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="I161" s="4" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="J161" s="4" t="s">
         <v>208</v>
       </c>
       <c r="K161" s="4" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="L161" s="4" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="M161" s="4" t="s">
         <v>116</v>
@@ -25273,42 +25276,42 @@
         <v>933</v>
       </c>
       <c r="P161" s="4" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="Q161" s="4" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="R161" s="4" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="S161" s="0"/>
       <c r="T161" s="0"/>
       <c r="U161" s="4" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="V161" s="4" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="W161" s="4" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="X161" s="4" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="Y161" s="5" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="AA161" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB161" s="3" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="AC161" s="3" t="s">
         <v>47</v>
       </c>
       <c r="AD161" s="3" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="AE161" s="3" t="s">
         <v>261</v>
@@ -25335,10 +25338,10 @@
         <v>933</v>
       </c>
       <c r="AO161" s="3" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="AP161" s="3" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="AQ161" s="3" t="s">
         <v>382</v>
@@ -25346,12 +25349,12 @@
       <c r="AR161" s="0"/>
       <c r="AS161" s="0"/>
       <c r="AT161" s="5" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="162" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A162" s="1" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="B162" s="0"/>
       <c r="C162" s="3" t="s">
@@ -25370,13 +25373,13 @@
         <v>626</v>
       </c>
       <c r="I162" s="4" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="J162" s="4" t="s">
         <v>528</v>
       </c>
       <c r="K162" s="4" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="L162" s="0"/>
       <c r="M162" s="4" t="s">
@@ -25396,11 +25399,11 @@
         <v>532</v>
       </c>
       <c r="S162" s="4" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="T162" s="0"/>
       <c r="U162" s="4" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="V162" s="0"/>
       <c r="W162" s="0"/>
@@ -25424,13 +25427,13 @@
         <v>631</v>
       </c>
       <c r="AH162" s="3" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="AI162" s="3" t="s">
         <v>528</v>
       </c>
       <c r="AJ162" s="3" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="AK162" s="0"/>
       <c r="AL162" s="3" t="s">
@@ -25454,28 +25457,28 @@
       </c>
       <c r="AS162" s="0"/>
       <c r="AT162" s="5" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="163" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A163" s="1" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="B163" s="0"/>
       <c r="C163" s="3" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>266</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="G163" s="4" t="s">
         <v>206</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>609</v>
@@ -25484,7 +25487,7 @@
         <v>1228</v>
       </c>
       <c r="K163" s="4" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="L163" s="4" t="s">
         <v>163</v>
@@ -25500,35 +25503,35 @@
         <v>1130</v>
       </c>
       <c r="Q163" s="4" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R163" s="0"/>
       <c r="S163" s="4" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="T163" s="4" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="U163" s="4" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="V163" s="4" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="W163" s="4" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="X163" s="4" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="Y163" s="5" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="AA163" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB163" s="3" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="AC163" s="3" t="s">
         <v>47</v>
@@ -25537,13 +25540,13 @@
         <v>266</v>
       </c>
       <c r="AE163" s="3" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="AF163" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG163" s="3" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="AH163" s="3" t="s">
         <v>609</v>
@@ -25552,7 +25555,7 @@
         <v>1228</v>
       </c>
       <c r="AJ163" s="3" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="AK163" s="3" t="s">
         <v>163</v>
@@ -25572,15 +25575,15 @@
       </c>
       <c r="AQ163" s="0"/>
       <c r="AR163" s="3" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="AT163" s="5" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="164" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A164" s="1" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="B164" s="0"/>
       <c r="C164" s="3" t="s">
@@ -25599,7 +25602,7 @@
         <v>140</v>
       </c>
       <c r="I164" s="4" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="J164" s="4" t="s">
         <v>33</v>
@@ -25611,7 +25614,7 @@
         <v>35</v>
       </c>
       <c r="M164" s="4" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="N164" s="4" t="s">
         <v>117</v>
@@ -25628,13 +25631,13 @@
       <c r="T164" s="0"/>
       <c r="U164" s="0"/>
       <c r="V164" s="4" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="W164" s="4" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="X164" s="4" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="Y164" s="0"/>
       <c r="AA164" s="2" t="s">
@@ -25659,7 +25662,7 @@
         <v>152</v>
       </c>
       <c r="AH164" s="3" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="AI164" s="3" t="s">
         <v>33</v>
@@ -25671,7 +25674,7 @@
         <v>35</v>
       </c>
       <c r="AL164" s="3" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="AM164" s="3" t="s">
         <v>132</v>
@@ -25690,7 +25693,7 @@
     </row>
     <row r="165" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A165" s="1" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="B165" s="0"/>
       <c r="C165" s="3" t="s">
@@ -25715,37 +25718,37 @@
         <v>1290</v>
       </c>
       <c r="O165" s="4" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="P165" s="4" t="s">
         <v>260</v>
       </c>
       <c r="Q165" s="4" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="R165" s="4" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="S165" s="4" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="T165" s="4" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="U165" s="4" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="V165" s="4" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="W165" s="4" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="X165" s="4" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="Y165" s="5" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="AA165" s="2" t="s">
         <v>46</v>
@@ -25775,13 +25778,13 @@
         <v>1290</v>
       </c>
       <c r="AN165" s="3" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="AO165" s="3" t="s">
         <v>264</v>
       </c>
       <c r="AP165" s="3" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AQ165" s="3" t="s">
         <v>955</v>
@@ -25792,26 +25795,26 @@
     </row>
     <row r="166" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A166" s="1" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="B166" s="0"/>
       <c r="C166" s="3" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="E166" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="G166" s="4" t="s">
         <v>206</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="I166" s="4" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="J166" s="4" t="s">
         <v>33</v>
@@ -25845,14 +25848,14 @@
       <c r="Y166" s="0"/>
       <c r="AA166" s="0"/>
       <c r="AB166" s="3" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="AC166" s="0"/>
       <c r="AD166" s="3" t="s">
         <v>181</v>
       </c>
       <c r="AE166" s="6" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="AF166" s="3" t="s">
         <v>80</v>
@@ -25861,7 +25864,7 @@
         <v>263</v>
       </c>
       <c r="AH166" s="3" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="AI166" s="3" t="s">
         <v>33</v>
@@ -25892,7 +25895,7 @@
     </row>
     <row r="167" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A167" s="1" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="B167" s="0"/>
       <c r="C167" s="3" t="s">
@@ -25911,17 +25914,17 @@
         <v>140</v>
       </c>
       <c r="I167" s="4" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="J167" s="4" t="s">
         <v>425</v>
       </c>
       <c r="K167" s="4" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="L167" s="0"/>
       <c r="M167" s="4" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="N167" s="4" t="s">
         <v>210</v>
@@ -25934,7 +25937,7 @@
         <v>839</v>
       </c>
       <c r="R167" s="4" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="S167" s="0"/>
       <c r="T167" s="0"/>
@@ -25961,17 +25964,17 @@
         <v>152</v>
       </c>
       <c r="AH167" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="AI167" s="3" t="s">
         <v>425</v>
       </c>
       <c r="AJ167" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="AK167" s="0"/>
       <c r="AL167" s="3" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="AM167" s="3" t="s">
         <v>215</v>
@@ -25992,7 +25995,7 @@
     </row>
     <row r="168" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A168" s="1" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="B168" s="0"/>
       <c r="C168" s="3" t="s">
@@ -26002,7 +26005,7 @@
         <v>110</v>
       </c>
       <c r="F168" s="4" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="G168" s="4" t="s">
         <v>61</v>
@@ -26011,13 +26014,13 @@
         <v>1298</v>
       </c>
       <c r="I168" s="4" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="J168" s="4" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="K168" s="4" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="L168" s="4" t="s">
         <v>35</v>
@@ -26030,7 +26033,7 @@
       </c>
       <c r="O168" s="0"/>
       <c r="P168" s="4" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="Q168" s="4" t="s">
         <v>40</v>
@@ -26040,13 +26043,13 @@
       <c r="T168" s="0"/>
       <c r="U168" s="0"/>
       <c r="V168" s="4" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="W168" s="4" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="X168" s="4" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="Y168" s="0"/>
       <c r="AA168" s="2" t="s">
@@ -26062,7 +26065,7 @@
         <v>110</v>
       </c>
       <c r="AE168" s="3" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="AF168" s="3" t="s">
         <v>80</v>
@@ -26071,10 +26074,10 @@
         <v>275</v>
       </c>
       <c r="AH168" s="3" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="AI168" s="3" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="AJ168" s="3" t="s">
         <v>605</v>
@@ -26090,7 +26093,7 @@
       </c>
       <c r="AN168" s="0"/>
       <c r="AO168" s="3" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="AP168" s="3" t="s">
         <v>56</v>
@@ -26102,7 +26105,7 @@
     </row>
     <row r="169" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A169" s="1" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="B169" s="0"/>
       <c r="C169" s="3" t="s">
@@ -26121,16 +26124,16 @@
         <v>220</v>
       </c>
       <c r="I169" s="4" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="J169" s="4" t="s">
         <v>296</v>
       </c>
       <c r="K169" s="4" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="L169" s="4" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="M169" s="4" t="s">
         <v>258</v>
@@ -26148,14 +26151,14 @@
       <c r="R169" s="0"/>
       <c r="S169" s="0"/>
       <c r="T169" s="4" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="U169" s="0"/>
       <c r="V169" s="4" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="W169" s="4" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="X169" s="4" t="s">
         <v>967</v>
@@ -26183,13 +26186,13 @@
         <v>229</v>
       </c>
       <c r="AH169" s="3" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="AI169" s="3" t="s">
         <v>296</v>
       </c>
       <c r="AJ169" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="AK169" s="3" t="s">
         <v>198</v>
@@ -26216,11 +26219,11 @@
     </row>
     <row r="170" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A170" s="1" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="B170" s="0"/>
       <c r="C170" s="3" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="E170" s="4" t="s">
         <v>181</v>
@@ -26235,7 +26238,7 @@
         <v>62</v>
       </c>
       <c r="I170" s="4" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="J170" s="4" t="s">
         <v>458</v>
@@ -26254,19 +26257,19 @@
       </c>
       <c r="O170" s="0"/>
       <c r="P170" s="4" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="Q170" s="4" t="s">
         <v>322</v>
       </c>
       <c r="R170" s="4" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="S170" s="4" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="T170" s="4" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="U170" s="0"/>
       <c r="V170" s="0"/>
@@ -26275,7 +26278,7 @@
       <c r="Y170" s="0"/>
       <c r="AA170" s="0"/>
       <c r="AB170" s="3" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="AC170" s="0"/>
       <c r="AD170" s="3" t="s">
@@ -26291,7 +26294,7 @@
         <v>81</v>
       </c>
       <c r="AH170" s="3" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="AI170" s="3" t="s">
         <v>458</v>
@@ -26310,7 +26313,7 @@
       </c>
       <c r="AN170" s="0"/>
       <c r="AO170" s="3" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="AP170" s="3" t="s">
         <v>332</v>
@@ -26328,32 +26331,32 @@
     </row>
     <row r="171" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A171" s="1" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="B171" s="0"/>
       <c r="C171" s="3" t="s">
         <v>1283</v>
       </c>
       <c r="E171" s="4" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="G171" s="4" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="I171" s="4" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="J171" s="4" t="s">
         <v>458</v>
       </c>
       <c r="K171" s="4" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="L171" s="4" t="s">
         <v>611</v>
@@ -26363,35 +26366,35 @@
         <v>68</v>
       </c>
       <c r="O171" s="4" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="P171" s="4" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="Q171" s="4" t="s">
         <v>495</v>
       </c>
       <c r="R171" s="0"/>
       <c r="S171" s="4" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="T171" s="4" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="U171" s="4" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="V171" s="4" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="W171" s="4" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="X171" s="4" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="Y171" s="5" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="AA171" s="2" t="s">
         <v>46</v>
@@ -26403,19 +26406,19 @@
         <v>679</v>
       </c>
       <c r="AD171" s="3" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="AE171" s="3" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AF171" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AG171" s="3" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="AH171" s="3" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="AI171" s="3" t="s">
         <v>458</v>
@@ -26431,7 +26434,7 @@
         <v>68</v>
       </c>
       <c r="AO171" s="3" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="AP171" s="3" t="s">
         <v>500</v>
@@ -26449,7 +26452,7 @@
     </row>
     <row r="172" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A172" s="1" t="s">
-        <v>2106</v>
+        <v>2107</v>
       </c>
       <c r="B172" s="0"/>
       <c r="C172" s="3" t="s">
@@ -26459,7 +26462,7 @@
         <v>181</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>2107</v>
+        <v>2108</v>
       </c>
       <c r="G172" s="4" t="s">
         <v>314</v>
@@ -26489,16 +26492,16 @@
         <v>342</v>
       </c>
       <c r="R172" s="4" t="s">
-        <v>2108</v>
+        <v>2109</v>
       </c>
       <c r="S172" s="4" t="s">
-        <v>2109</v>
+        <v>2110</v>
       </c>
       <c r="T172" s="4" t="s">
-        <v>2110</v>
+        <v>2111</v>
       </c>
       <c r="U172" s="4" t="s">
-        <v>2111</v>
+        <v>2112</v>
       </c>
       <c r="V172" s="0"/>
       <c r="W172" s="0"/>
@@ -26513,7 +26516,7 @@
         <v>181</v>
       </c>
       <c r="AE172" s="3" t="s">
-        <v>2112</v>
+        <v>2113</v>
       </c>
       <c r="AF172" s="3" t="s">
         <v>49</v>
@@ -26551,11 +26554,11 @@
     </row>
     <row r="173" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A173" s="1" t="s">
-        <v>2113</v>
+        <v>2114</v>
       </c>
       <c r="B173" s="0"/>
       <c r="C173" s="3" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="E173" s="4" t="s">
         <v>181</v>
@@ -26570,13 +26573,13 @@
         <v>254</v>
       </c>
       <c r="I173" s="4" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="J173" s="4" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="K173" s="4" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="L173" s="4" t="s">
         <v>35</v>
@@ -26592,31 +26595,31 @@
         <v>961</v>
       </c>
       <c r="Q173" s="4" t="s">
-        <v>2117</v>
+        <v>2118</v>
       </c>
       <c r="R173" s="0"/>
       <c r="S173" s="4" t="s">
-        <v>2118</v>
+        <v>2119</v>
       </c>
       <c r="T173" s="0"/>
       <c r="U173" s="4" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
       <c r="V173" s="4" t="s">
-        <v>2120</v>
+        <v>2121</v>
       </c>
       <c r="W173" s="4" t="s">
-        <v>2121</v>
+        <v>2122</v>
       </c>
       <c r="X173" s="4" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="Y173" s="0"/>
       <c r="AA173" s="2" t="s">
         <v>521</v>
       </c>
       <c r="AB173" s="3" t="s">
-        <v>2114</v>
+        <v>2115</v>
       </c>
       <c r="AC173" s="3" t="s">
         <v>47</v>
@@ -26634,13 +26637,13 @@
         <v>254</v>
       </c>
       <c r="AH173" s="3" t="s">
-        <v>2115</v>
+        <v>2116</v>
       </c>
       <c r="AI173" s="3" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="AJ173" s="3" t="s">
-        <v>2116</v>
+        <v>2117</v>
       </c>
       <c r="AK173" s="3" t="s">
         <v>35</v>
@@ -26656,7 +26659,7 @@
         <v>970</v>
       </c>
       <c r="AP173" s="3" t="s">
-        <v>2123</v>
+        <v>2124</v>
       </c>
       <c r="AQ173" s="0"/>
       <c r="AR173" s="3" t="s">
@@ -26664,22 +26667,22 @@
       </c>
       <c r="AS173" s="0"/>
       <c r="AT173" s="5" t="s">
-        <v>2119</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="174" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A174" s="1" t="s">
-        <v>2124</v>
+        <v>2125</v>
       </c>
       <c r="B174" s="0"/>
       <c r="C174" s="3" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="E174" s="4" t="s">
         <v>729</v>
       </c>
       <c r="F174" s="4" t="s">
-        <v>2126</v>
+        <v>2127</v>
       </c>
       <c r="G174" s="4" t="s">
         <v>92</v>
@@ -26691,7 +26694,7 @@
         <v>568</v>
       </c>
       <c r="J174" s="4" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="K174" s="4" t="s">
         <v>855</v>
@@ -26706,7 +26709,7 @@
         <v>856</v>
       </c>
       <c r="O174" s="4" t="s">
-        <v>2128</v>
+        <v>2129</v>
       </c>
       <c r="P174" s="4" t="s">
         <v>284</v>
@@ -26715,13 +26718,13 @@
         <v>40</v>
       </c>
       <c r="R174" s="4" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="S174" s="4" t="s">
-        <v>2130</v>
+        <v>2131</v>
       </c>
       <c r="T174" s="4" t="s">
-        <v>2131</v>
+        <v>2132</v>
       </c>
       <c r="U174" s="0"/>
       <c r="V174" s="4" t="s">
@@ -26738,7 +26741,7 @@
         <v>46</v>
       </c>
       <c r="AB174" s="3" t="s">
-        <v>2125</v>
+        <v>2126</v>
       </c>
       <c r="AC174" s="3" t="s">
         <v>47</v>
@@ -26759,7 +26762,7 @@
         <v>568</v>
       </c>
       <c r="AI174" s="3" t="s">
-        <v>2127</v>
+        <v>2128</v>
       </c>
       <c r="AJ174" s="3" t="s">
         <v>855</v>
@@ -26774,7 +26777,7 @@
         <v>856</v>
       </c>
       <c r="AN174" s="3" t="s">
-        <v>2132</v>
+        <v>2133</v>
       </c>
       <c r="AO174" s="3" t="s">
         <v>290</v>
@@ -26795,32 +26798,32 @@
     </row>
     <row r="175" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A175" s="1" t="s">
-        <v>2133</v>
+        <v>2134</v>
       </c>
       <c r="B175" s="0"/>
       <c r="C175" s="3" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="E175" s="4" t="s">
         <v>266</v>
       </c>
       <c r="F175" s="4" t="s">
-        <v>2135</v>
+        <v>2136</v>
       </c>
       <c r="G175" s="4" t="s">
         <v>314</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>2136</v>
+        <v>2137</v>
       </c>
       <c r="I175" s="4" t="s">
-        <v>2137</v>
+        <v>2138</v>
       </c>
       <c r="J175" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="K175" s="4" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="L175" s="4" t="s">
         <v>163</v>
@@ -26833,36 +26836,36 @@
       </c>
       <c r="O175" s="0"/>
       <c r="P175" s="4" t="s">
-        <v>2139</v>
+        <v>2140</v>
       </c>
       <c r="Q175" s="4" t="s">
         <v>839</v>
       </c>
       <c r="R175" s="4" t="s">
-        <v>2140</v>
+        <v>2141</v>
       </c>
       <c r="S175" s="4" t="s">
-        <v>2141</v>
+        <v>2142</v>
       </c>
       <c r="T175" s="4" t="s">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="U175" s="0"/>
       <c r="V175" s="4" t="s">
-        <v>2143</v>
+        <v>2144</v>
       </c>
       <c r="W175" s="4" t="s">
         <v>171</v>
       </c>
       <c r="X175" s="4" t="s">
-        <v>2144</v>
+        <v>2145</v>
       </c>
       <c r="Y175" s="0"/>
       <c r="AA175" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB175" s="3" t="s">
-        <v>2134</v>
+        <v>2135</v>
       </c>
       <c r="AC175" s="3" t="s">
         <v>47</v>
@@ -26871,22 +26874,22 @@
         <v>266</v>
       </c>
       <c r="AE175" s="6" t="s">
-        <v>2145</v>
+        <v>2146</v>
       </c>
       <c r="AF175" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AG175" s="3" t="s">
-        <v>2146</v>
+        <v>2147</v>
       </c>
       <c r="AH175" s="3" t="s">
-        <v>2147</v>
+        <v>2148</v>
       </c>
       <c r="AI175" s="3" t="s">
         <v>1299</v>
       </c>
       <c r="AJ175" s="3" t="s">
-        <v>2138</v>
+        <v>2139</v>
       </c>
       <c r="AK175" s="3" t="s">
         <v>163</v>
@@ -26899,7 +26902,7 @@
       </c>
       <c r="AN175" s="0"/>
       <c r="AO175" s="3" t="s">
-        <v>2148</v>
+        <v>2149</v>
       </c>
       <c r="AP175" s="3" t="s">
         <v>850</v>
@@ -26908,7 +26911,7 @@
         <v>657</v>
       </c>
       <c r="AR175" s="3" t="s">
-        <v>2149</v>
+        <v>2150</v>
       </c>
       <c r="AS175" s="3" t="s">
         <v>334</v>
@@ -26917,11 +26920,11 @@
     </row>
     <row r="176" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A176" s="1" t="s">
-        <v>2150</v>
+        <v>2151</v>
       </c>
       <c r="B176" s="0"/>
       <c r="C176" s="3" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="E176" s="4" t="s">
         <v>157</v>
@@ -26936,19 +26939,19 @@
         <v>941</v>
       </c>
       <c r="I176" s="4" t="s">
-        <v>2152</v>
+        <v>2153</v>
       </c>
       <c r="J176" s="4" t="s">
         <v>824</v>
       </c>
       <c r="K176" s="4" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="L176" s="4" t="s">
-        <v>2154</v>
+        <v>2155</v>
       </c>
       <c r="M176" s="4" t="s">
-        <v>2155</v>
+        <v>2156</v>
       </c>
       <c r="N176" s="4" t="s">
         <v>922</v>
@@ -26958,7 +26961,7 @@
         <v>629</v>
       </c>
       <c r="Q176" s="4" t="s">
-        <v>2156</v>
+        <v>2157</v>
       </c>
       <c r="R176" s="0"/>
       <c r="S176" s="0"/>
@@ -26970,7 +26973,7 @@
       <c r="Y176" s="0"/>
       <c r="AA176" s="0"/>
       <c r="AB176" s="3" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="AC176" s="0"/>
       <c r="AD176" s="3" t="s">
@@ -26986,19 +26989,19 @@
         <v>229</v>
       </c>
       <c r="AH176" s="3" t="s">
-        <v>2157</v>
+        <v>2158</v>
       </c>
       <c r="AI176" s="3" t="s">
         <v>824</v>
       </c>
       <c r="AJ176" s="3" t="s">
-        <v>2153</v>
+        <v>2154</v>
       </c>
       <c r="AK176" s="3" t="s">
-        <v>2158</v>
+        <v>2159</v>
       </c>
       <c r="AL176" s="3" t="s">
-        <v>2159</v>
+        <v>2160</v>
       </c>
       <c r="AM176" s="3" t="s">
         <v>930</v>
@@ -27008,7 +27011,7 @@
         <v>632</v>
       </c>
       <c r="AP176" s="3" t="s">
-        <v>2160</v>
+        <v>2161</v>
       </c>
       <c r="AQ176" s="0"/>
       <c r="AR176" s="0"/>
@@ -27017,7 +27020,7 @@
     </row>
     <row r="177" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A177" s="1" t="s">
-        <v>2161</v>
+        <v>2162</v>
       </c>
       <c r="B177" s="0"/>
       <c r="C177" s="3" t="s">
@@ -27036,53 +27039,53 @@
         <v>140</v>
       </c>
       <c r="I177" s="4" t="s">
-        <v>2162</v>
+        <v>2163</v>
       </c>
       <c r="J177" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K177" s="4" t="s">
-        <v>2163</v>
+        <v>2164</v>
       </c>
       <c r="L177" s="4" t="s">
-        <v>2164</v>
+        <v>2165</v>
       </c>
       <c r="M177" s="4" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="N177" s="4" t="s">
         <v>68</v>
       </c>
       <c r="O177" s="4" t="s">
-        <v>2166</v>
+        <v>2167</v>
       </c>
       <c r="P177" s="4" t="s">
         <v>1187</v>
       </c>
       <c r="Q177" s="4" t="s">
-        <v>2167</v>
+        <v>2168</v>
       </c>
       <c r="R177" s="4" t="s">
-        <v>2168</v>
+        <v>2169</v>
       </c>
       <c r="S177" s="4" t="s">
-        <v>2169</v>
+        <v>2170</v>
       </c>
       <c r="T177" s="4" t="s">
-        <v>2170</v>
+        <v>2171</v>
       </c>
       <c r="U177" s="0"/>
       <c r="V177" s="4" t="s">
-        <v>2171</v>
+        <v>2172</v>
       </c>
       <c r="W177" s="4" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="X177" s="4" t="s">
-        <v>2172</v>
+        <v>2173</v>
       </c>
       <c r="Y177" s="5" t="s">
-        <v>2173</v>
+        <v>2174</v>
       </c>
       <c r="AA177" s="2" t="s">
         <v>46</v>
@@ -27106,31 +27109,31 @@
         <v>152</v>
       </c>
       <c r="AH177" s="3" t="s">
-        <v>2174</v>
+        <v>2175</v>
       </c>
       <c r="AI177" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AJ177" s="3" t="s">
-        <v>2175</v>
+        <v>2176</v>
       </c>
       <c r="AK177" s="3" t="s">
-        <v>2176</v>
+        <v>2177</v>
       </c>
       <c r="AL177" s="3" t="s">
-        <v>2165</v>
+        <v>2166</v>
       </c>
       <c r="AM177" s="3" t="s">
         <v>68</v>
       </c>
       <c r="AN177" s="3" t="s">
-        <v>2177</v>
+        <v>2178</v>
       </c>
       <c r="AO177" s="3" t="s">
         <v>1191</v>
       </c>
       <c r="AP177" s="3" t="s">
-        <v>2178</v>
+        <v>2179</v>
       </c>
       <c r="AQ177" s="3" t="s">
         <v>420</v>
@@ -27145,26 +27148,26 @@
     </row>
     <row r="178" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A178" s="1" t="s">
-        <v>2179</v>
+        <v>2180</v>
       </c>
       <c r="B178" s="0"/>
       <c r="C178" s="3" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="E178" s="4" t="s">
         <v>1679</v>
       </c>
       <c r="F178" s="4" t="s">
-        <v>2180</v>
+        <v>2181</v>
       </c>
       <c r="G178" s="4" t="s">
-        <v>2181</v>
+        <v>2182</v>
       </c>
       <c r="H178" s="4" t="s">
         <v>349</v>
       </c>
       <c r="I178" s="4" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="J178" s="4" t="s">
         <v>33</v>
@@ -27190,17 +27193,17 @@
       </c>
       <c r="R178" s="0"/>
       <c r="S178" s="4" t="s">
-        <v>2183</v>
+        <v>2184</v>
       </c>
       <c r="T178" s="4" t="s">
-        <v>2184</v>
+        <v>2185</v>
       </c>
       <c r="U178" s="0"/>
       <c r="V178" s="4" t="s">
         <v>361</v>
       </c>
       <c r="W178" s="4" t="s">
-        <v>2185</v>
+        <v>2186</v>
       </c>
       <c r="X178" s="4" t="s">
         <v>363</v>
@@ -27210,7 +27213,7 @@
         <v>46</v>
       </c>
       <c r="AB178" s="3" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="AC178" s="3" t="s">
         <v>47</v>
@@ -27219,7 +27222,7 @@
         <v>1679</v>
       </c>
       <c r="AE178" s="3" t="s">
-        <v>2186</v>
+        <v>2187</v>
       </c>
       <c r="AF178" s="3" t="s">
         <v>49</v>
@@ -27228,7 +27231,7 @@
         <v>50</v>
       </c>
       <c r="AH178" s="3" t="s">
-        <v>2182</v>
+        <v>2183</v>
       </c>
       <c r="AI178" s="3" t="s">
         <v>33</v>
@@ -27263,29 +27266,29 @@
     </row>
     <row r="179" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A179" s="1" t="s">
-        <v>2187</v>
+        <v>2188</v>
       </c>
       <c r="B179" s="0"/>
       <c r="C179" s="3" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="E179" s="4" t="s">
         <v>1284</v>
       </c>
       <c r="F179" s="4" t="s">
-        <v>2189</v>
+        <v>2190</v>
       </c>
       <c r="G179" s="4" t="s">
         <v>206</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>2190</v>
+        <v>2191</v>
       </c>
       <c r="I179" s="4" t="s">
-        <v>2191</v>
+        <v>2192</v>
       </c>
       <c r="J179" s="4" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="K179" s="4" t="s">
         <v>374</v>
@@ -27294,7 +27297,7 @@
         <v>375</v>
       </c>
       <c r="M179" s="4" t="s">
-        <v>2193</v>
+        <v>2194</v>
       </c>
       <c r="N179" s="4" t="s">
         <v>602</v>
@@ -27304,27 +27307,27 @@
         <v>827</v>
       </c>
       <c r="Q179" s="4" t="s">
-        <v>2194</v>
+        <v>2195</v>
       </c>
       <c r="R179" s="0"/>
       <c r="S179" s="0"/>
       <c r="T179" s="0"/>
       <c r="U179" s="0"/>
       <c r="V179" s="4" t="s">
-        <v>2195</v>
+        <v>2196</v>
       </c>
       <c r="W179" s="4" t="s">
-        <v>2196</v>
+        <v>2197</v>
       </c>
       <c r="X179" s="4" t="s">
-        <v>2197</v>
+        <v>2198</v>
       </c>
       <c r="Y179" s="0"/>
       <c r="AA179" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB179" s="3" t="s">
-        <v>2188</v>
+        <v>2189</v>
       </c>
       <c r="AC179" s="3" t="s">
         <v>47</v>
@@ -27333,7 +27336,7 @@
         <v>1284</v>
       </c>
       <c r="AE179" s="3" t="s">
-        <v>2198</v>
+        <v>2199</v>
       </c>
       <c r="AF179" s="3" t="s">
         <v>80</v>
@@ -27342,10 +27345,10 @@
         <v>152</v>
       </c>
       <c r="AH179" s="3" t="s">
-        <v>2199</v>
+        <v>2200</v>
       </c>
       <c r="AI179" s="3" t="s">
-        <v>2192</v>
+        <v>2193</v>
       </c>
       <c r="AJ179" s="3" t="s">
         <v>374</v>
@@ -27354,7 +27357,7 @@
         <v>375</v>
       </c>
       <c r="AL179" s="3" t="s">
-        <v>2200</v>
+        <v>2201</v>
       </c>
       <c r="AM179" s="3" t="s">
         <v>602</v>
@@ -27364,7 +27367,7 @@
         <v>831</v>
       </c>
       <c r="AP179" s="3" t="s">
-        <v>2201</v>
+        <v>2202</v>
       </c>
       <c r="AQ179" s="0"/>
       <c r="AR179" s="0"/>
@@ -27373,7 +27376,7 @@
     </row>
     <row r="180" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A180" s="1" t="s">
-        <v>2202</v>
+        <v>2203</v>
       </c>
       <c r="B180" s="0"/>
       <c r="C180" s="3" t="s">
@@ -27389,7 +27392,7 @@
         <v>206</v>
       </c>
       <c r="H180" s="4" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="I180" s="4" t="s">
         <v>568</v>
@@ -27398,7 +27401,7 @@
         <v>161</v>
       </c>
       <c r="K180" s="4" t="s">
-        <v>2204</v>
+        <v>2205</v>
       </c>
       <c r="L180" s="4" t="s">
         <v>66</v>
@@ -27410,7 +27413,7 @@
         <v>272</v>
       </c>
       <c r="O180" s="4" t="s">
-        <v>2205</v>
+        <v>2206</v>
       </c>
       <c r="P180" s="4" t="s">
         <v>547</v>
@@ -27419,7 +27422,7 @@
         <v>495</v>
       </c>
       <c r="R180" s="4" t="s">
-        <v>2206</v>
+        <v>2207</v>
       </c>
       <c r="S180" s="0"/>
       <c r="T180" s="0"/>
@@ -27443,7 +27446,7 @@
         <v>80</v>
       </c>
       <c r="AG180" s="3" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="AH180" s="3" t="s">
         <v>568</v>
@@ -27452,7 +27455,7 @@
         <v>161</v>
       </c>
       <c r="AJ180" s="3" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="AK180" s="3" t="s">
         <v>66</v>
@@ -27478,26 +27481,26 @@
     </row>
     <row r="181" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A181" s="1" t="s">
-        <v>2209</v>
+        <v>2210</v>
       </c>
       <c r="B181" s="0"/>
       <c r="C181" s="3" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="E181" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F181" s="4" t="s">
-        <v>2211</v>
+        <v>2212</v>
       </c>
       <c r="G181" s="4" t="s">
         <v>61</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>2212</v>
+        <v>2213</v>
       </c>
       <c r="I181" s="4" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="J181" s="4" t="s">
         <v>458</v>
@@ -27513,42 +27516,42 @@
         <v>117</v>
       </c>
       <c r="O181" s="4" t="s">
-        <v>2214</v>
+        <v>2215</v>
       </c>
       <c r="P181" s="4" t="s">
         <v>816</v>
       </c>
       <c r="Q181" s="4" t="s">
-        <v>2215</v>
+        <v>2216</v>
       </c>
       <c r="R181" s="4" t="s">
-        <v>2216</v>
+        <v>2217</v>
       </c>
       <c r="S181" s="0"/>
       <c r="T181" s="0"/>
       <c r="U181" s="4" t="s">
-        <v>2217</v>
+        <v>2218</v>
       </c>
       <c r="V181" s="4" t="s">
-        <v>2218</v>
+        <v>2219</v>
       </c>
       <c r="W181" s="4" t="s">
-        <v>2219</v>
+        <v>2220</v>
       </c>
       <c r="X181" s="4" t="s">
-        <v>2220</v>
+        <v>2221</v>
       </c>
       <c r="Y181" s="5" t="s">
-        <v>2221</v>
+        <v>2222</v>
       </c>
       <c r="AA181" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB181" s="3" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="AC181" s="3" t="s">
-        <v>2222</v>
+        <v>2223</v>
       </c>
       <c r="AD181" s="3" t="s">
         <v>181</v>
@@ -27560,7 +27563,7 @@
         <v>80</v>
       </c>
       <c r="AG181" s="3" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="AH181" s="3" t="s">
         <v>1485</v>
@@ -27582,17 +27585,17 @@
         <v>820</v>
       </c>
       <c r="AP181" s="3" t="s">
-        <v>2223</v>
+        <v>2224</v>
       </c>
       <c r="AQ181" s="3" t="s">
-        <v>2224</v>
+        <v>2225</v>
       </c>
       <c r="AR181" s="0"/>
       <c r="AS181" s="0"/>
     </row>
     <row r="182" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A182" s="1" t="s">
-        <v>2225</v>
+        <v>2226</v>
       </c>
       <c r="B182" s="0"/>
       <c r="C182" s="3" t="s">
@@ -27629,7 +27632,7 @@
         <v>298</v>
       </c>
       <c r="O182" s="4" t="s">
-        <v>2226</v>
+        <v>2227</v>
       </c>
       <c r="P182" s="4" t="s">
         <v>260</v>
@@ -27640,17 +27643,17 @@
       <c r="R182" s="0"/>
       <c r="S182" s="0"/>
       <c r="T182" s="4" t="s">
-        <v>2227</v>
+        <v>2228</v>
       </c>
       <c r="U182" s="0"/>
       <c r="V182" s="4" t="s">
-        <v>2228</v>
+        <v>2229</v>
       </c>
       <c r="W182" s="4" t="s">
         <v>1646</v>
       </c>
       <c r="X182" s="4" t="s">
-        <v>2229</v>
+        <v>2230</v>
       </c>
       <c r="Y182" s="0"/>
       <c r="AA182" s="2" t="s">
@@ -27693,7 +27696,7 @@
         <v>309</v>
       </c>
       <c r="AN182" s="3" t="s">
-        <v>2230</v>
+        <v>2231</v>
       </c>
       <c r="AO182" s="3" t="s">
         <v>264</v>
@@ -27710,11 +27713,11 @@
     </row>
     <row r="183" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A183" s="1" t="s">
-        <v>2231</v>
+        <v>2232</v>
       </c>
       <c r="B183" s="0"/>
       <c r="C183" s="3" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="E183" s="4" t="s">
         <v>181</v>
@@ -27729,19 +27732,19 @@
         <v>112</v>
       </c>
       <c r="I183" s="4" t="s">
-        <v>2233</v>
+        <v>2234</v>
       </c>
       <c r="J183" s="4" t="s">
         <v>775</v>
       </c>
       <c r="K183" s="4" t="s">
-        <v>2234</v>
+        <v>2235</v>
       </c>
       <c r="L183" s="4" t="s">
         <v>921</v>
       </c>
       <c r="M183" s="4" t="s">
-        <v>2235</v>
+        <v>2236</v>
       </c>
       <c r="N183" s="4" t="s">
         <v>145</v>
@@ -27761,7 +27764,7 @@
         <v>1161</v>
       </c>
       <c r="W183" s="4" t="s">
-        <v>2236</v>
+        <v>2237</v>
       </c>
       <c r="X183" s="4" t="s">
         <v>1163</v>
@@ -27771,7 +27774,7 @@
         <v>46</v>
       </c>
       <c r="AB183" s="3" t="s">
-        <v>2232</v>
+        <v>2233</v>
       </c>
       <c r="AC183" s="3" t="s">
         <v>1164</v>
@@ -27789,19 +27792,19 @@
         <v>129</v>
       </c>
       <c r="AH183" s="3" t="s">
-        <v>2237</v>
+        <v>2238</v>
       </c>
       <c r="AI183" s="3" t="s">
         <v>775</v>
       </c>
       <c r="AJ183" s="3" t="s">
-        <v>2238</v>
+        <v>2239</v>
       </c>
       <c r="AK183" s="3" t="s">
         <v>921</v>
       </c>
       <c r="AL183" s="3" t="s">
-        <v>2239</v>
+        <v>2240</v>
       </c>
       <c r="AM183" s="3" t="s">
         <v>145</v>
@@ -27820,38 +27823,38 @@
     </row>
     <row r="184" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A184" s="1" t="s">
-        <v>2240</v>
+        <v>2241</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C184" s="3" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="E184" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F184" s="4" t="s">
-        <v>2243</v>
+        <v>2244</v>
       </c>
       <c r="G184" s="4" t="s">
         <v>314</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>2244</v>
+        <v>2245</v>
       </c>
       <c r="I184" s="4" t="s">
-        <v>2245</v>
+        <v>2246</v>
       </c>
       <c r="J184" s="4" t="s">
         <v>1228</v>
       </c>
       <c r="K184" s="4" t="s">
-        <v>2246</v>
+        <v>2247</v>
       </c>
       <c r="L184" s="0"/>
       <c r="M184" s="4" t="s">
-        <v>2247</v>
+        <v>2248</v>
       </c>
       <c r="N184" s="4" t="s">
         <v>468</v>
@@ -27875,20 +27878,20 @@
         <v>46</v>
       </c>
       <c r="AB184" s="3" t="s">
-        <v>2242</v>
+        <v>2243</v>
       </c>
       <c r="AC184" s="0"/>
       <c r="AD184" s="3" t="s">
         <v>157</v>
       </c>
       <c r="AE184" s="3" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="AF184" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AG184" s="3" t="s">
-        <v>2248</v>
+        <v>2249</v>
       </c>
       <c r="AI184" s="3" t="s">
         <v>1228</v>
@@ -27898,7 +27901,7 @@
       </c>
       <c r="AK184" s="0"/>
       <c r="AL184" s="3" t="s">
-        <v>2249</v>
+        <v>2250</v>
       </c>
       <c r="AM184" s="3" t="s">
         <v>480</v>
@@ -27917,10 +27920,10 @@
     </row>
     <row r="185" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A185" s="1" t="s">
-        <v>2250</v>
+        <v>2251</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C185" s="3" t="s">
         <v>1271</v>
@@ -27929,7 +27932,7 @@
         <v>862</v>
       </c>
       <c r="F185" s="4" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="G185" s="4" t="s">
         <v>314</v>
@@ -27938,7 +27941,7 @@
         <v>268</v>
       </c>
       <c r="I185" s="4" t="s">
-        <v>2252</v>
+        <v>2253</v>
       </c>
       <c r="J185" s="4" t="s">
         <v>1022</v>
@@ -27981,7 +27984,7 @@
         <v>862</v>
       </c>
       <c r="AE185" s="3" t="s">
-        <v>2251</v>
+        <v>2252</v>
       </c>
       <c r="AF185" s="3" t="s">
         <v>49</v>
@@ -27990,7 +27993,7 @@
         <v>275</v>
       </c>
       <c r="AH185" s="3" t="s">
-        <v>2253</v>
+        <v>2254</v>
       </c>
       <c r="AI185" s="3" t="s">
         <v>1022</v>
@@ -28021,13 +28024,13 @@
     </row>
     <row r="186" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A186" s="1" t="s">
-        <v>2254</v>
+        <v>2255</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C186" s="3" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="E186" s="4" t="s">
         <v>667</v>
@@ -28042,7 +28045,7 @@
         <v>62</v>
       </c>
       <c r="I186" s="4" t="s">
-        <v>2256</v>
+        <v>2257</v>
       </c>
       <c r="J186" s="4" t="s">
         <v>775</v>
@@ -28051,13 +28054,13 @@
         <v>1312</v>
       </c>
       <c r="L186" s="4" t="s">
-        <v>2257</v>
+        <v>2258</v>
       </c>
       <c r="M186" s="4" t="s">
         <v>494</v>
       </c>
       <c r="N186" s="4" t="s">
-        <v>2258</v>
+        <v>2259</v>
       </c>
       <c r="O186" s="0"/>
       <c r="P186" s="4" t="s">
@@ -28067,14 +28070,14 @@
         <v>120</v>
       </c>
       <c r="R186" s="4" t="s">
-        <v>2259</v>
+        <v>2260</v>
       </c>
       <c r="S186" s="4" t="s">
-        <v>2260</v>
+        <v>2261</v>
       </c>
       <c r="T186" s="0"/>
       <c r="U186" s="4" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
       <c r="V186" s="4" t="s">
         <v>1318</v>
@@ -28083,16 +28086,16 @@
         <v>772</v>
       </c>
       <c r="X186" s="4" t="s">
-        <v>2262</v>
+        <v>2263</v>
       </c>
       <c r="Y186" s="5" t="s">
-        <v>2263</v>
+        <v>2264</v>
       </c>
       <c r="AA186" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB186" s="3" t="s">
-        <v>2255</v>
+        <v>2256</v>
       </c>
       <c r="AC186" s="3" t="s">
         <v>47</v>
@@ -28110,7 +28113,7 @@
         <v>81</v>
       </c>
       <c r="AH186" s="3" t="s">
-        <v>2264</v>
+        <v>2265</v>
       </c>
       <c r="AI186" s="3" t="s">
         <v>775</v>
@@ -28142,12 +28145,12 @@
       </c>
       <c r="AS186" s="0"/>
       <c r="AT186" s="5" t="s">
-        <v>2261</v>
+        <v>2262</v>
       </c>
     </row>
     <row r="187" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A187" s="1" t="s">
-        <v>2265</v>
+        <v>2266</v>
       </c>
       <c r="B187" s="0"/>
       <c r="C187" s="3" t="s">
@@ -28166,7 +28169,7 @@
         <v>1456</v>
       </c>
       <c r="I187" s="4" t="s">
-        <v>2266</v>
+        <v>2267</v>
       </c>
       <c r="J187" s="4" t="s">
         <v>442</v>
@@ -28195,13 +28198,13 @@
       <c r="T187" s="0"/>
       <c r="U187" s="0"/>
       <c r="V187" s="4" t="s">
-        <v>2267</v>
+        <v>2268</v>
       </c>
       <c r="W187" s="4" t="s">
-        <v>2268</v>
+        <v>2269</v>
       </c>
       <c r="X187" s="4" t="s">
-        <v>2269</v>
+        <v>2270</v>
       </c>
       <c r="Y187" s="0"/>
       <c r="AA187" s="2" t="s">
@@ -28226,7 +28229,7 @@
         <v>1464</v>
       </c>
       <c r="AH187" s="3" t="s">
-        <v>2270</v>
+        <v>2271</v>
       </c>
       <c r="AI187" s="3" t="s">
         <v>442</v>
@@ -28257,7 +28260,7 @@
     </row>
     <row r="188" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A188" s="1" t="s">
-        <v>2271</v>
+        <v>2272</v>
       </c>
       <c r="B188" s="0"/>
       <c r="C188" s="3" t="s">
@@ -28267,22 +28270,22 @@
         <v>266</v>
       </c>
       <c r="F188" s="4" t="s">
-        <v>2272</v>
+        <v>2273</v>
       </c>
       <c r="G188" s="4" t="s">
         <v>206</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>2273</v>
+        <v>2274</v>
       </c>
       <c r="I188" s="4" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="J188" s="4" t="s">
         <v>1098</v>
       </c>
       <c r="K188" s="4" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="L188" s="4" t="s">
         <v>35</v>
@@ -28298,20 +28301,20 @@
         <v>321</v>
       </c>
       <c r="Q188" s="4" t="s">
-        <v>2276</v>
+        <v>2277</v>
       </c>
       <c r="R188" s="0"/>
       <c r="S188" s="0"/>
       <c r="T188" s="0"/>
       <c r="U188" s="0"/>
       <c r="V188" s="4" t="s">
-        <v>2277</v>
+        <v>2278</v>
       </c>
       <c r="W188" s="4" t="s">
-        <v>2278</v>
+        <v>2279</v>
       </c>
       <c r="X188" s="4" t="s">
-        <v>2279</v>
+        <v>2280</v>
       </c>
       <c r="Y188" s="0"/>
       <c r="AA188" s="2" t="s">
@@ -28327,22 +28330,22 @@
         <v>266</v>
       </c>
       <c r="AE188" s="3" t="s">
-        <v>2280</v>
+        <v>2281</v>
       </c>
       <c r="AF188" s="3" t="s">
         <v>80</v>
       </c>
       <c r="AG188" s="3" t="s">
-        <v>2281</v>
+        <v>2282</v>
       </c>
       <c r="AH188" s="3" t="s">
-        <v>2274</v>
+        <v>2275</v>
       </c>
       <c r="AI188" s="3" t="s">
         <v>1098</v>
       </c>
       <c r="AJ188" s="3" t="s">
-        <v>2275</v>
+        <v>2276</v>
       </c>
       <c r="AK188" s="3" t="s">
         <v>35</v>
@@ -28358,7 +28361,7 @@
         <v>331</v>
       </c>
       <c r="AP188" s="3" t="s">
-        <v>2282</v>
+        <v>2283</v>
       </c>
       <c r="AQ188" s="0"/>
       <c r="AR188" s="0"/>
@@ -28367,7 +28370,7 @@
     </row>
     <row r="189" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A189" s="1" t="s">
-        <v>2283</v>
+        <v>2284</v>
       </c>
       <c r="B189" s="0"/>
       <c r="C189" s="3" t="s">
@@ -28386,16 +28389,16 @@
         <v>140</v>
       </c>
       <c r="I189" s="4" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="J189" s="4" t="s">
         <v>804</v>
       </c>
       <c r="K189" s="4" t="s">
-        <v>2285</v>
+        <v>2286</v>
       </c>
       <c r="L189" s="4" t="s">
-        <v>2286</v>
+        <v>2287</v>
       </c>
       <c r="M189" s="4" t="s">
         <v>258</v>
@@ -28438,16 +28441,16 @@
         <v>152</v>
       </c>
       <c r="AH189" s="3" t="s">
-        <v>2284</v>
+        <v>2285</v>
       </c>
       <c r="AI189" s="3" t="s">
         <v>804</v>
       </c>
       <c r="AJ189" s="3" t="s">
-        <v>2287</v>
+        <v>2288</v>
       </c>
       <c r="AK189" s="3" t="s">
-        <v>2288</v>
+        <v>2289</v>
       </c>
       <c r="AL189" s="3" t="s">
         <v>263</v>
@@ -28471,7 +28474,7 @@
     </row>
     <row r="190" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A190" s="1" t="s">
-        <v>2289</v>
+        <v>2290</v>
       </c>
       <c r="B190" s="0"/>
       <c r="C190" s="3" t="s">
@@ -28490,7 +28493,7 @@
         <v>140</v>
       </c>
       <c r="I190" s="4" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="J190" s="4" t="s">
         <v>669</v>
@@ -28499,7 +28502,7 @@
         <v>34</v>
       </c>
       <c r="L190" s="4" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="M190" s="4" t="s">
         <v>67</v>
@@ -28508,7 +28511,7 @@
         <v>272</v>
       </c>
       <c r="O190" s="4" t="s">
-        <v>2292</v>
+        <v>2293</v>
       </c>
       <c r="P190" s="4" t="s">
         <v>212</v>
@@ -28517,7 +28520,7 @@
         <v>40</v>
       </c>
       <c r="R190" s="4" t="s">
-        <v>2293</v>
+        <v>2294</v>
       </c>
       <c r="S190" s="0"/>
       <c r="T190" s="0"/>
@@ -28544,7 +28547,7 @@
         <v>152</v>
       </c>
       <c r="AH190" s="3" t="s">
-        <v>2290</v>
+        <v>2291</v>
       </c>
       <c r="AI190" s="3" t="s">
         <v>669</v>
@@ -28553,7 +28556,7 @@
         <v>51</v>
       </c>
       <c r="AK190" s="3" t="s">
-        <v>2291</v>
+        <v>2292</v>
       </c>
       <c r="AL190" s="3" t="s">
         <v>67</v>
@@ -28562,7 +28565,7 @@
         <v>272</v>
       </c>
       <c r="AN190" s="3" t="s">
-        <v>2294</v>
+        <v>2295</v>
       </c>
       <c r="AO190" s="3" t="s">
         <v>212</v>
@@ -28579,10 +28582,10 @@
     </row>
     <row r="191" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A191" s="1" t="s">
-        <v>2295</v>
+        <v>2296</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>1267</v>
@@ -28597,16 +28600,16 @@
         <v>206</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>2296</v>
+        <v>2297</v>
       </c>
       <c r="I191" s="4" t="s">
-        <v>2297</v>
+        <v>2298</v>
       </c>
       <c r="J191" s="4" t="s">
-        <v>2298</v>
+        <v>2299</v>
       </c>
       <c r="K191" s="4" t="s">
-        <v>2299</v>
+        <v>2300</v>
       </c>
       <c r="L191" s="0"/>
       <c r="M191" s="0"/>
@@ -28614,28 +28617,28 @@
         <v>117</v>
       </c>
       <c r="O191" s="4" t="s">
-        <v>2300</v>
+        <v>2301</v>
       </c>
       <c r="P191" s="4" t="s">
         <v>260</v>
       </c>
       <c r="Q191" s="4" t="s">
-        <v>2301</v>
+        <v>2302</v>
       </c>
       <c r="R191" s="0"/>
       <c r="S191" s="0"/>
       <c r="T191" s="0"/>
       <c r="U191" s="4" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
       <c r="V191" s="4" t="s">
-        <v>2303</v>
+        <v>2304</v>
       </c>
       <c r="W191" s="4" t="s">
-        <v>2304</v>
+        <v>2305</v>
       </c>
       <c r="X191" s="4" t="s">
-        <v>2305</v>
+        <v>2306</v>
       </c>
       <c r="Y191" s="0"/>
       <c r="AA191" s="2" t="s">
@@ -28657,7 +28660,7 @@
         <v>631</v>
       </c>
       <c r="AI191" s="3" t="s">
-        <v>2306</v>
+        <v>2307</v>
       </c>
       <c r="AJ191" s="3" t="s">
         <v>550</v>
@@ -28668,27 +28671,27 @@
         <v>132</v>
       </c>
       <c r="AN191" s="3" t="s">
-        <v>2307</v>
+        <v>2308</v>
       </c>
       <c r="AO191" s="3" t="s">
         <v>264</v>
       </c>
       <c r="AP191" s="3" t="s">
-        <v>2308</v>
+        <v>2309</v>
       </c>
       <c r="AQ191" s="0"/>
       <c r="AR191" s="0"/>
       <c r="AS191" s="0"/>
       <c r="AT191" s="5" t="s">
-        <v>2302</v>
+        <v>2303</v>
       </c>
     </row>
     <row r="192" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A192" s="1" t="s">
-        <v>2309</v>
+        <v>2310</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C192" s="3" t="s">
         <v>1267</v>
@@ -28706,13 +28709,13 @@
         <v>254</v>
       </c>
       <c r="I192" s="4" t="s">
-        <v>2310</v>
+        <v>2311</v>
       </c>
       <c r="J192" s="4" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="K192" s="4" t="s">
-        <v>2312</v>
+        <v>2313</v>
       </c>
       <c r="L192" s="4" t="s">
         <v>117</v>
@@ -28757,7 +28760,7 @@
         <v>254</v>
       </c>
       <c r="AI192" s="3" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="AJ192" s="3" t="s">
         <v>550</v>
@@ -28785,13 +28788,13 @@
     </row>
     <row r="193" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A193" s="1" t="s">
-        <v>2313</v>
+        <v>2314</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C193" s="3" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="E193" s="4" t="s">
         <v>157</v>
@@ -28803,16 +28806,16 @@
         <v>61</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>2315</v>
+        <v>2316</v>
       </c>
       <c r="I193" s="4" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="J193" s="4" t="s">
         <v>442</v>
       </c>
       <c r="K193" s="4" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="L193" s="4" t="s">
         <v>35</v>
@@ -28824,35 +28827,35 @@
         <v>145</v>
       </c>
       <c r="O193" s="4" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="P193" s="4" t="s">
         <v>547</v>
       </c>
       <c r="Q193" s="4" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="R193" s="0"/>
       <c r="S193" s="4" t="s">
-        <v>2319</v>
+        <v>2320</v>
       </c>
       <c r="T193" s="0"/>
       <c r="U193" s="0"/>
       <c r="V193" s="4" t="s">
-        <v>2320</v>
+        <v>2321</v>
       </c>
       <c r="W193" s="4" t="s">
         <v>1555</v>
       </c>
       <c r="X193" s="4" t="s">
-        <v>2321</v>
+        <v>2322</v>
       </c>
       <c r="Y193" s="0"/>
       <c r="AA193" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB193" s="3" t="s">
-        <v>2314</v>
+        <v>2315</v>
       </c>
       <c r="AD193" s="3" t="s">
         <v>157</v>
@@ -28867,13 +28870,13 @@
         <v>81</v>
       </c>
       <c r="AH193" s="3" t="s">
-        <v>2316</v>
+        <v>2317</v>
       </c>
       <c r="AI193" s="3" t="s">
         <v>442</v>
       </c>
       <c r="AJ193" s="3" t="s">
-        <v>2317</v>
+        <v>2318</v>
       </c>
       <c r="AK193" s="3" t="s">
         <v>35</v>
@@ -28885,13 +28888,13 @@
         <v>145</v>
       </c>
       <c r="AN193" s="3" t="s">
-        <v>2318</v>
+        <v>2319</v>
       </c>
       <c r="AO193" s="3" t="s">
         <v>551</v>
       </c>
       <c r="AP193" s="3" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="AQ193" s="0"/>
       <c r="AR193" s="3" t="s">
@@ -28902,32 +28905,32 @@
     </row>
     <row r="194" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A194" s="1" t="s">
-        <v>2322</v>
+        <v>2323</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C194" s="3" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="E194" s="4" t="s">
         <v>157</v>
       </c>
       <c r="F194" s="4" t="s">
-        <v>2324</v>
+        <v>2325</v>
       </c>
       <c r="G194" s="4" t="s">
         <v>314</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>2325</v>
+        <v>2326</v>
       </c>
       <c r="I194" s="0"/>
       <c r="J194" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="K194" s="4" t="s">
-        <v>2326</v>
+        <v>2327</v>
       </c>
       <c r="L194" s="4" t="s">
         <v>320</v>
@@ -28943,10 +28946,10 @@
         <v>166</v>
       </c>
       <c r="Q194" s="4" t="s">
-        <v>2327</v>
+        <v>2328</v>
       </c>
       <c r="R194" s="4" t="s">
-        <v>2328</v>
+        <v>2329</v>
       </c>
       <c r="S194" s="0"/>
       <c r="T194" s="0"/>
@@ -28959,7 +28962,7 @@
         <v>46</v>
       </c>
       <c r="AB194" s="3" t="s">
-        <v>2323</v>
+        <v>2324</v>
       </c>
       <c r="AD194" s="3" t="s">
         <v>157</v>
@@ -28994,7 +28997,7 @@
         <v>176</v>
       </c>
       <c r="AP194" s="3" t="s">
-        <v>2329</v>
+        <v>2330</v>
       </c>
       <c r="AQ194" s="3" t="s">
         <v>178</v>
@@ -29005,10 +29008,10 @@
     </row>
     <row r="195" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A195" s="1" t="s">
-        <v>2330</v>
+        <v>2331</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C195" s="3" t="s">
         <v>1428</v>
@@ -29026,13 +29029,13 @@
         <v>112</v>
       </c>
       <c r="I195" s="4" t="s">
-        <v>2331</v>
+        <v>2332</v>
       </c>
       <c r="J195" s="4" t="s">
         <v>458</v>
       </c>
       <c r="K195" s="4" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="L195" s="4" t="s">
         <v>375</v>
@@ -29041,7 +29044,7 @@
         <v>164</v>
       </c>
       <c r="N195" s="4" t="s">
-        <v>2332</v>
+        <v>2333</v>
       </c>
       <c r="O195" s="0"/>
       <c r="P195" s="4" t="s">
@@ -29054,7 +29057,7 @@
       <c r="S195" s="0"/>
       <c r="T195" s="0"/>
       <c r="U195" s="4" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
       <c r="V195" s="0"/>
       <c r="W195" s="0"/>
@@ -29079,13 +29082,13 @@
         <v>129</v>
       </c>
       <c r="AH195" s="3" t="s">
-        <v>2334</v>
+        <v>2335</v>
       </c>
       <c r="AI195" s="3" t="s">
         <v>458</v>
       </c>
       <c r="AJ195" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="AK195" s="3" t="s">
         <v>375</v>
@@ -29094,7 +29097,7 @@
         <v>175</v>
       </c>
       <c r="AM195" s="3" t="s">
-        <v>2335</v>
+        <v>2336</v>
       </c>
       <c r="AN195" s="0"/>
       <c r="AO195" s="3" t="s">
@@ -29107,15 +29110,15 @@
       <c r="AR195" s="0"/>
       <c r="AS195" s="0"/>
       <c r="AT195" s="5" t="s">
-        <v>2333</v>
+        <v>2334</v>
       </c>
     </row>
     <row r="196" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A196" s="1" t="s">
-        <v>2336</v>
+        <v>2337</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>1183</v>
@@ -29152,7 +29155,7 @@
       <c r="R196" s="0"/>
       <c r="S196" s="0"/>
       <c r="T196" s="4" t="s">
-        <v>2337</v>
+        <v>2338</v>
       </c>
       <c r="U196" s="0"/>
       <c r="V196" s="0"/>
@@ -29203,10 +29206,10 @@
     </row>
     <row r="197" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A197" s="1" t="s">
-        <v>2338</v>
+        <v>2339</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>1428</v>
@@ -29218,19 +29221,19 @@
         <v>252</v>
       </c>
       <c r="G197" s="4" t="s">
-        <v>2339</v>
+        <v>2340</v>
       </c>
       <c r="H197" s="4" t="s">
         <v>140</v>
       </c>
       <c r="I197" s="4" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="J197" s="4" t="s">
         <v>1299</v>
       </c>
       <c r="K197" s="4" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="L197" s="4" t="s">
         <v>35</v>
@@ -29241,31 +29244,31 @@
       </c>
       <c r="O197" s="0"/>
       <c r="P197" s="4" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="Q197" s="4" t="s">
-        <v>2342</v>
+        <v>2343</v>
       </c>
       <c r="R197" s="4" t="s">
-        <v>2343</v>
+        <v>2344</v>
       </c>
       <c r="S197" s="4" t="s">
-        <v>2344</v>
+        <v>2345</v>
       </c>
       <c r="T197" s="4" t="s">
-        <v>2345</v>
+        <v>2346</v>
       </c>
       <c r="U197" s="4" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
       <c r="V197" s="4" t="s">
-        <v>2347</v>
+        <v>2348</v>
       </c>
       <c r="W197" s="4" t="s">
-        <v>2348</v>
+        <v>2349</v>
       </c>
       <c r="X197" s="4" t="s">
-        <v>2349</v>
+        <v>2350</v>
       </c>
       <c r="Y197" s="0"/>
       <c r="AA197" s="2" t="s">
@@ -29287,13 +29290,13 @@
         <v>152</v>
       </c>
       <c r="AH197" s="3" t="s">
-        <v>2340</v>
+        <v>2341</v>
       </c>
       <c r="AI197" s="3" t="s">
         <v>1299</v>
       </c>
       <c r="AJ197" s="3" t="s">
-        <v>2341</v>
+        <v>2342</v>
       </c>
       <c r="AK197" s="3" t="s">
         <v>35</v>
@@ -29304,10 +29307,10 @@
       </c>
       <c r="AN197" s="0"/>
       <c r="AO197" s="3" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="AP197" s="3" t="s">
-        <v>2350</v>
+        <v>2351</v>
       </c>
       <c r="AQ197" s="3" t="s">
         <v>178</v>
@@ -29319,18 +29322,18 @@
         <v>552</v>
       </c>
       <c r="AT197" s="5" t="s">
-        <v>2346</v>
+        <v>2347</v>
       </c>
     </row>
     <row r="198" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A198" s="1" t="s">
-        <v>2351</v>
+        <v>2352</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C198" s="3" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="E198" s="4" t="s">
         <v>157</v>
@@ -29345,7 +29348,7 @@
         <v>220</v>
       </c>
       <c r="I198" s="4" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="J198" s="4" t="s">
         <v>33</v>
@@ -29381,7 +29384,7 @@
         <v>46</v>
       </c>
       <c r="AB198" s="3" t="s">
-        <v>2352</v>
+        <v>2353</v>
       </c>
       <c r="AD198" s="3" t="s">
         <v>157</v>
@@ -29396,7 +29399,7 @@
         <v>229</v>
       </c>
       <c r="AH198" s="3" t="s">
-        <v>2353</v>
+        <v>2354</v>
       </c>
       <c r="AI198" s="3" t="s">
         <v>33</v>
@@ -29427,19 +29430,19 @@
     </row>
     <row r="199" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A199" s="1" t="s">
-        <v>2354</v>
+        <v>2355</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C199" s="3" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="E199" s="4" t="s">
         <v>729</v>
       </c>
       <c r="F199" s="4" t="s">
-        <v>2357</v>
+        <v>2358</v>
       </c>
       <c r="G199" s="4" t="s">
         <v>206</v>
@@ -29452,7 +29455,7 @@
         <v>775</v>
       </c>
       <c r="K199" s="4" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="L199" s="4" t="s">
         <v>261</v>
@@ -29475,26 +29478,26 @@
       <c r="T199" s="0"/>
       <c r="U199" s="0"/>
       <c r="V199" s="4" t="s">
-        <v>2359</v>
+        <v>2360</v>
       </c>
       <c r="W199" s="4" t="s">
-        <v>2360</v>
+        <v>2361</v>
       </c>
       <c r="X199" s="4" t="s">
-        <v>2361</v>
+        <v>2362</v>
       </c>
       <c r="Y199" s="0"/>
       <c r="AA199" s="2" t="s">
         <v>521</v>
       </c>
       <c r="AB199" s="3" t="s">
-        <v>2356</v>
+        <v>2357</v>
       </c>
       <c r="AD199" s="3" t="s">
         <v>729</v>
       </c>
       <c r="AE199" s="3" t="s">
-        <v>2362</v>
+        <v>2363</v>
       </c>
       <c r="AF199" s="3" t="s">
         <v>80</v>
@@ -29507,7 +29510,7 @@
         <v>775</v>
       </c>
       <c r="AJ199" s="3" t="s">
-        <v>2358</v>
+        <v>2359</v>
       </c>
       <c r="AL199" s="3" t="s">
         <v>175</v>
@@ -29529,10 +29532,10 @@
     </row>
     <row r="200" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A200" s="1" t="s">
-        <v>2363</v>
+        <v>2364</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>1428</v>
@@ -29541,7 +29544,7 @@
         <v>251</v>
       </c>
       <c r="F200" s="4" t="s">
-        <v>2364</v>
+        <v>2365</v>
       </c>
       <c r="G200" s="4" t="s">
         <v>556</v>
@@ -29565,13 +29568,13 @@
       <c r="T200" s="0"/>
       <c r="U200" s="0"/>
       <c r="V200" s="4" t="s">
-        <v>2365</v>
+        <v>2366</v>
       </c>
       <c r="W200" s="4" t="s">
-        <v>2366</v>
+        <v>2367</v>
       </c>
       <c r="X200" s="4" t="s">
-        <v>2367</v>
+        <v>2368</v>
       </c>
       <c r="Y200" s="0"/>
       <c r="AA200" s="2" t="s">
@@ -29610,13 +29613,13 @@
     </row>
     <row r="201" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A201" s="1" t="s">
-        <v>2368</v>
+        <v>2369</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C201" s="3" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="E201" s="4" t="s">
         <v>266</v>
@@ -29631,16 +29634,16 @@
         <v>140</v>
       </c>
       <c r="I201" s="4" t="s">
-        <v>2370</v>
+        <v>2371</v>
       </c>
       <c r="J201" s="4" t="s">
         <v>33</v>
       </c>
       <c r="K201" s="4" t="s">
-        <v>2371</v>
+        <v>2372</v>
       </c>
       <c r="L201" s="4" t="s">
-        <v>2372</v>
+        <v>2373</v>
       </c>
       <c r="M201" s="4" t="s">
         <v>271</v>
@@ -29653,35 +29656,35 @@
         <v>356</v>
       </c>
       <c r="Q201" s="4" t="s">
-        <v>2373</v>
+        <v>2374</v>
       </c>
       <c r="R201" s="4" t="s">
-        <v>2374</v>
+        <v>2375</v>
       </c>
       <c r="S201" s="4" t="s">
-        <v>2375</v>
+        <v>2376</v>
       </c>
       <c r="T201" s="4" t="s">
-        <v>2376</v>
+        <v>2377</v>
       </c>
       <c r="U201" s="4" t="s">
-        <v>2377</v>
+        <v>2378</v>
       </c>
       <c r="V201" s="4" t="s">
-        <v>2378</v>
+        <v>2379</v>
       </c>
       <c r="W201" s="4" t="s">
-        <v>2379</v>
+        <v>2380</v>
       </c>
       <c r="X201" s="4" t="s">
-        <v>2380</v>
+        <v>2381</v>
       </c>
       <c r="Y201" s="0"/>
       <c r="AA201" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB201" s="3" t="s">
-        <v>2369</v>
+        <v>2370</v>
       </c>
       <c r="AD201" s="3" t="s">
         <v>266</v>
@@ -29696,13 +29699,13 @@
         <v>152</v>
       </c>
       <c r="AH201" s="3" t="s">
-        <v>2381</v>
+        <v>2382</v>
       </c>
       <c r="AI201" s="3" t="s">
         <v>33</v>
       </c>
       <c r="AJ201" s="3" t="s">
-        <v>2382</v>
+        <v>2383</v>
       </c>
       <c r="AK201" s="3" t="s">
         <v>198</v>
@@ -29718,7 +29721,7 @@
         <v>369</v>
       </c>
       <c r="AP201" s="3" t="s">
-        <v>2383</v>
+        <v>2384</v>
       </c>
       <c r="AQ201" s="3" t="s">
         <v>577</v>
@@ -29729,13 +29732,13 @@
     </row>
     <row r="202" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A202" s="1" t="s">
-        <v>2384</v>
+        <v>2385</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C202" s="3" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="E202" s="4" t="s">
         <v>729</v>
@@ -29750,55 +29753,55 @@
         <v>220</v>
       </c>
       <c r="I202" s="4" t="s">
-        <v>2386</v>
+        <v>2387</v>
       </c>
       <c r="J202" s="4" t="s">
         <v>458</v>
       </c>
       <c r="K202" s="4" t="s">
-        <v>2387</v>
+        <v>2388</v>
       </c>
       <c r="L202" s="4" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="M202" s="4" t="s">
         <v>67</v>
       </c>
       <c r="N202" s="4" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="O202" s="4" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="P202" s="4" t="s">
-        <v>2391</v>
+        <v>2392</v>
       </c>
       <c r="Q202" s="4" t="s">
         <v>1611</v>
       </c>
       <c r="R202" s="0"/>
       <c r="S202" s="4" t="s">
-        <v>2392</v>
+        <v>2393</v>
       </c>
       <c r="T202" s="0"/>
       <c r="U202" s="0"/>
       <c r="V202" s="4" t="s">
-        <v>2393</v>
+        <v>2394</v>
       </c>
       <c r="W202" s="4" t="s">
-        <v>2394</v>
+        <v>2395</v>
       </c>
       <c r="X202" s="4" t="s">
-        <v>2395</v>
+        <v>2396</v>
       </c>
       <c r="Y202" s="5" t="s">
-        <v>2396</v>
+        <v>2397</v>
       </c>
       <c r="AA202" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB202" s="3" t="s">
-        <v>2385</v>
+        <v>2386</v>
       </c>
       <c r="AD202" s="3" t="s">
         <v>729</v>
@@ -29813,45 +29816,45 @@
         <v>229</v>
       </c>
       <c r="AH202" s="3" t="s">
-        <v>2397</v>
+        <v>2398</v>
       </c>
       <c r="AI202" s="3" t="s">
         <v>458</v>
       </c>
       <c r="AJ202" s="3" t="s">
-        <v>2398</v>
+        <v>2399</v>
       </c>
       <c r="AK202" s="3" t="s">
-        <v>2388</v>
+        <v>2389</v>
       </c>
       <c r="AL202" s="3" t="s">
         <v>67</v>
       </c>
       <c r="AM202" s="3" t="s">
-        <v>2389</v>
+        <v>2390</v>
       </c>
       <c r="AN202" s="3" t="s">
-        <v>2390</v>
+        <v>2391</v>
       </c>
       <c r="AO202" s="3" t="s">
-        <v>2399</v>
+        <v>2400</v>
       </c>
       <c r="AP202" s="3" t="s">
         <v>1615</v>
       </c>
       <c r="AQ202" s="0"/>
       <c r="AR202" s="3" t="s">
-        <v>2400</v>
+        <v>2401</v>
       </c>
       <c r="AS202" s="0"/>
       <c r="AT202" s="0"/>
     </row>
     <row r="203" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A203" s="1" t="s">
-        <v>2401</v>
+        <v>2402</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C203" s="3" t="s">
         <v>1576</v>
@@ -29872,10 +29875,10 @@
         <v>973</v>
       </c>
       <c r="J203" s="4" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="K203" s="4" t="s">
-        <v>2403</v>
+        <v>2404</v>
       </c>
       <c r="L203" s="4" t="s">
         <v>35</v>
@@ -29887,7 +29890,7 @@
         <v>282</v>
       </c>
       <c r="O203" s="4" t="s">
-        <v>2404</v>
+        <v>2405</v>
       </c>
       <c r="P203" s="4" t="s">
         <v>531</v>
@@ -29900,13 +29903,13 @@
       <c r="T203" s="0"/>
       <c r="U203" s="0"/>
       <c r="V203" s="4" t="s">
-        <v>2405</v>
+        <v>2406</v>
       </c>
       <c r="W203" s="4" t="s">
-        <v>2406</v>
+        <v>2407</v>
       </c>
       <c r="X203" s="4" t="s">
-        <v>2407</v>
+        <v>2408</v>
       </c>
       <c r="Y203" s="0"/>
       <c r="AA203" s="2" t="s">
@@ -29931,10 +29934,10 @@
         <v>983</v>
       </c>
       <c r="AI203" s="3" t="s">
-        <v>2402</v>
+        <v>2403</v>
       </c>
       <c r="AJ203" s="3" t="s">
-        <v>2408</v>
+        <v>2409</v>
       </c>
       <c r="AK203" s="3" t="s">
         <v>35</v>
@@ -29958,13 +29961,13 @@
     </row>
     <row r="204" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A204" s="1" t="s">
-        <v>2409</v>
+        <v>2410</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C204" s="3" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="E204" s="4" t="s">
         <v>181</v>
@@ -29979,7 +29982,7 @@
         <v>1298</v>
       </c>
       <c r="I204" s="4" t="s">
-        <v>2411</v>
+        <v>2412</v>
       </c>
       <c r="J204" s="4" t="s">
         <v>296</v>
@@ -29991,17 +29994,17 @@
         <v>921</v>
       </c>
       <c r="M204" s="4" t="s">
-        <v>2412</v>
+        <v>2413</v>
       </c>
       <c r="N204" s="4" t="s">
         <v>272</v>
       </c>
       <c r="O204" s="0"/>
       <c r="P204" s="4" t="s">
-        <v>2413</v>
+        <v>2414</v>
       </c>
       <c r="Q204" s="4" t="s">
-        <v>2414</v>
+        <v>2415</v>
       </c>
       <c r="R204" s="0"/>
       <c r="S204" s="0"/>
@@ -30014,7 +30017,7 @@
         <v>46</v>
       </c>
       <c r="AB204" s="3" t="s">
-        <v>2410</v>
+        <v>2411</v>
       </c>
       <c r="AD204" s="3" t="s">
         <v>181</v>
@@ -30029,7 +30032,7 @@
         <v>275</v>
       </c>
       <c r="AH204" s="3" t="s">
-        <v>2415</v>
+        <v>2416</v>
       </c>
       <c r="AI204" s="3" t="s">
         <v>296</v>
@@ -30041,17 +30044,17 @@
         <v>921</v>
       </c>
       <c r="AL204" s="3" t="s">
-        <v>2416</v>
+        <v>2417</v>
       </c>
       <c r="AM204" s="3" t="s">
         <v>272</v>
       </c>
       <c r="AN204" s="0"/>
       <c r="AO204" s="3" t="s">
-        <v>2417</v>
+        <v>2418</v>
       </c>
       <c r="AP204" s="3" t="s">
-        <v>2418</v>
+        <v>2419</v>
       </c>
       <c r="AQ204" s="0"/>
       <c r="AR204" s="0"/>
@@ -30060,10 +30063,10 @@
     </row>
     <row r="205" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A205" s="1" t="s">
-        <v>2419</v>
+        <v>2420</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C205" s="3" t="s">
         <v>1309</v>
@@ -30072,7 +30075,7 @@
         <v>264</v>
       </c>
       <c r="F205" s="4" t="s">
-        <v>2420</v>
+        <v>2421</v>
       </c>
       <c r="G205" s="4" t="s">
         <v>489</v>
@@ -30081,13 +30084,13 @@
         <v>220</v>
       </c>
       <c r="I205" s="4" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="J205" s="4" t="s">
-        <v>2422</v>
+        <v>2423</v>
       </c>
       <c r="K205" s="4" t="s">
-        <v>2423</v>
+        <v>2424</v>
       </c>
       <c r="L205" s="0"/>
       <c r="M205" s="0"/>
@@ -30103,18 +30106,18 @@
       </c>
       <c r="R205" s="0"/>
       <c r="S205" s="4" t="s">
-        <v>2424</v>
+        <v>2425</v>
       </c>
       <c r="T205" s="0"/>
       <c r="U205" s="0"/>
       <c r="V205" s="4" t="s">
-        <v>2425</v>
+        <v>2426</v>
       </c>
       <c r="W205" s="4" t="s">
-        <v>2426</v>
+        <v>2427</v>
       </c>
       <c r="X205" s="4" t="s">
-        <v>2427</v>
+        <v>2428</v>
       </c>
       <c r="AA205" s="2" t="s">
         <v>46</v>
@@ -30135,10 +30138,10 @@
         <v>229</v>
       </c>
       <c r="AH205" s="3" t="s">
-        <v>2421</v>
+        <v>2422</v>
       </c>
       <c r="AI205" s="3" t="s">
-        <v>2428</v>
+        <v>2429</v>
       </c>
       <c r="AJ205" s="3" t="s">
         <v>481</v>
@@ -30164,25 +30167,25 @@
     </row>
     <row r="206" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A206" s="1" t="s">
-        <v>2429</v>
+        <v>2430</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="E206" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F206" s="4" t="s">
-        <v>2431</v>
+        <v>2432</v>
       </c>
       <c r="G206" s="4" t="s">
         <v>489</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>2432</v>
+        <v>2433</v>
       </c>
       <c r="I206" s="0"/>
       <c r="J206" s="4" t="s">
@@ -30199,19 +30202,19 @@
         <v>602</v>
       </c>
       <c r="O206" s="4" t="s">
-        <v>2433</v>
+        <v>2434</v>
       </c>
       <c r="P206" s="4" t="s">
         <v>223</v>
       </c>
       <c r="Q206" s="4" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="R206" s="0"/>
       <c r="S206" s="0"/>
       <c r="T206" s="0"/>
       <c r="U206" s="4" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
       <c r="V206" s="0"/>
       <c r="W206" s="0"/>
@@ -30220,7 +30223,7 @@
         <v>521</v>
       </c>
       <c r="AB206" s="3" t="s">
-        <v>2430</v>
+        <v>2431</v>
       </c>
       <c r="AD206" s="3" t="s">
         <v>181</v>
@@ -30232,7 +30235,7 @@
         <v>497</v>
       </c>
       <c r="AG206" s="3" t="s">
-        <v>2105</v>
+        <v>2106</v>
       </c>
       <c r="AH206" s="0"/>
       <c r="AI206" s="3" t="s">
@@ -30249,7 +30252,7 @@
         <v>602</v>
       </c>
       <c r="AN206" s="3" t="s">
-        <v>2435</v>
+        <v>2436</v>
       </c>
       <c r="AO206" s="3" t="s">
         <v>231</v>
@@ -30261,30 +30264,30 @@
       <c r="AR206" s="0"/>
       <c r="AS206" s="0"/>
       <c r="AT206" s="5" t="s">
-        <v>2434</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="207" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A207" s="1" t="s">
-        <v>2436</v>
+        <v>2437</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C207" s="3" t="s">
-        <v>2437</v>
+        <v>2438</v>
       </c>
       <c r="E207" s="4" t="s">
         <v>181</v>
       </c>
       <c r="F207" s="4" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="G207" s="4" t="s">
         <v>489</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>2439</v>
+        <v>2440</v>
       </c>
       <c r="I207" s="4" t="s">
         <v>1011</v>
@@ -30293,7 +30296,7 @@
         <v>296</v>
       </c>
       <c r="K207" s="4" t="s">
-        <v>2440</v>
+        <v>2441</v>
       </c>
       <c r="L207" s="4" t="s">
         <v>937</v>
@@ -30322,19 +30325,19 @@
         <v>46</v>
       </c>
       <c r="AB207" s="3" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="AD207" s="3" t="s">
         <v>181</v>
       </c>
       <c r="AE207" s="3" t="s">
-        <v>2438</v>
+        <v>2439</v>
       </c>
       <c r="AF207" s="3" t="s">
         <v>497</v>
       </c>
       <c r="AG207" s="3" t="s">
-        <v>2442</v>
+        <v>2443</v>
       </c>
       <c r="AH207" s="3" t="s">
         <v>1011</v>
@@ -30365,10 +30368,10 @@
     </row>
     <row r="208" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A208" s="1" t="s">
-        <v>2443</v>
+        <v>2444</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C208" s="3" t="s">
         <v>1309</v>
@@ -30383,25 +30386,25 @@
         <v>61</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>2444</v>
+        <v>2445</v>
       </c>
       <c r="I208" s="4" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="J208" s="4" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="K208" s="4" t="s">
-        <v>2446</v>
+        <v>2447</v>
       </c>
       <c r="L208" s="4" t="s">
-        <v>2447</v>
+        <v>2448</v>
       </c>
       <c r="M208" s="4" t="s">
         <v>271</v>
       </c>
       <c r="N208" s="4" t="s">
-        <v>2448</v>
+        <v>2449</v>
       </c>
       <c r="O208" s="4" t="s">
         <v>878</v>
@@ -30423,13 +30426,13 @@
         <v>46</v>
       </c>
       <c r="AB208" s="3" t="s">
-        <v>2441</v>
+        <v>2442</v>
       </c>
       <c r="AD208" s="3" t="s">
         <v>181</v>
       </c>
       <c r="AE208" s="3" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="AF208" s="3" t="s">
         <v>80</v>
@@ -30438,13 +30441,13 @@
         <v>1557</v>
       </c>
       <c r="AH208" s="3" t="s">
-        <v>2445</v>
+        <v>2446</v>
       </c>
       <c r="AI208" s="3" t="s">
-        <v>2311</v>
+        <v>2312</v>
       </c>
       <c r="AJ208" s="3" t="s">
-        <v>2449</v>
+        <v>2450</v>
       </c>
       <c r="AK208" s="3" t="s">
         <v>198</v>
@@ -30471,13 +30474,13 @@
     </row>
     <row r="209" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A209" s="1" t="s">
-        <v>2450</v>
+        <v>2451</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C209" s="3" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="E209" s="4" t="s">
         <v>181</v>
@@ -30489,11 +30492,11 @@
         <v>30</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>2203</v>
+        <v>2204</v>
       </c>
       <c r="I209" s="0"/>
       <c r="J209" s="4" t="s">
-        <v>2452</v>
+        <v>2453</v>
       </c>
       <c r="K209" s="0"/>
       <c r="L209" s="0"/>
@@ -30520,7 +30523,7 @@
         <v>46</v>
       </c>
       <c r="AB209" s="3" t="s">
-        <v>2451</v>
+        <v>2452</v>
       </c>
       <c r="AD209" s="3" t="s">
         <v>181</v>
@@ -30532,11 +30535,11 @@
         <v>49</v>
       </c>
       <c r="AG209" s="3" t="s">
-        <v>2207</v>
+        <v>2208</v>
       </c>
       <c r="AH209" s="0"/>
       <c r="AI209" s="3" t="s">
-        <v>2453</v>
+        <v>2454</v>
       </c>
       <c r="AJ209" s="0"/>
       <c r="AK209" s="0"/>
@@ -30558,10 +30561,10 @@
     </row>
     <row r="210" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A210" s="1" t="s">
-        <v>2454</v>
+        <v>2455</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C210" s="3" t="s">
         <v>1309</v>
@@ -30570,19 +30573,19 @@
         <v>181</v>
       </c>
       <c r="F210" s="4" t="s">
-        <v>2455</v>
+        <v>2456</v>
       </c>
       <c r="G210" s="4" t="s">
         <v>206</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>2456</v>
+        <v>2457</v>
       </c>
       <c r="I210" s="4" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="J210" s="4" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="K210" s="0"/>
       <c r="L210" s="0"/>
@@ -30600,11 +30603,11 @@
         <v>342</v>
       </c>
       <c r="R210" s="4" t="s">
-        <v>2458</v>
+        <v>2459</v>
       </c>
       <c r="S210" s="0"/>
       <c r="T210" s="4" t="s">
-        <v>2459</v>
+        <v>2460</v>
       </c>
       <c r="U210" s="0"/>
       <c r="V210" s="0"/>
@@ -30630,10 +30633,10 @@
         <v>103</v>
       </c>
       <c r="AH210" s="3" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="AI210" s="3" t="s">
-        <v>2457</v>
+        <v>2458</v>
       </c>
       <c r="AJ210" s="0"/>
       <c r="AK210" s="0"/>
@@ -30658,10 +30661,10 @@
     </row>
     <row r="211" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A211" s="1" t="s">
-        <v>2460</v>
+        <v>2461</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>2355</v>
+        <v>2356</v>
       </c>
       <c r="C211" s="3" t="s">
         <v>1309</v>
@@ -30679,7 +30682,7 @@
         <v>140</v>
       </c>
       <c r="I211" s="4" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="J211" s="4" t="s">
         <v>296</v>
@@ -30687,7 +30690,7 @@
       <c r="K211" s="0"/>
       <c r="L211" s="0"/>
       <c r="M211" s="4" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="N211" s="4" t="s">
         <v>68</v>
@@ -30704,11 +30707,11 @@
       <c r="T211" s="0"/>
       <c r="U211" s="0"/>
       <c r="V211" s="4" t="s">
-        <v>2463</v>
+        <v>2464</v>
       </c>
       <c r="W211" s="0"/>
       <c r="X211" s="4" t="s">
-        <v>2464</v>
+        <v>2465</v>
       </c>
       <c r="Y211" s="0"/>
       <c r="AA211" s="2" t="s">
@@ -30730,7 +30733,7 @@
         <v>152</v>
       </c>
       <c r="AH211" s="3" t="s">
-        <v>2461</v>
+        <v>2462</v>
       </c>
       <c r="AI211" s="3" t="s">
         <v>296</v>
@@ -30738,7 +30741,7 @@
       <c r="AJ211" s="0"/>
       <c r="AK211" s="0"/>
       <c r="AL211" s="3" t="s">
-        <v>2462</v>
+        <v>2463</v>
       </c>
       <c r="AM211" s="3" t="s">
         <v>68</v>
@@ -30757,28 +30760,28 @@
     </row>
     <row r="212" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A212" s="1" t="s">
-        <v>2465</v>
+        <v>2466</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C212" s="3" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="E212" s="4" t="s">
         <v>862</v>
       </c>
       <c r="F212" s="4" t="s">
-        <v>2467</v>
+        <v>2468</v>
       </c>
       <c r="G212" s="4" t="s">
         <v>30</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>2468</v>
+        <v>2469</v>
       </c>
       <c r="I212" s="4" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="J212" s="4" t="s">
         <v>208</v>
@@ -30803,37 +30806,37 @@
       <c r="T212" s="0"/>
       <c r="U212" s="0"/>
       <c r="V212" s="4" t="s">
-        <v>2470</v>
+        <v>2471</v>
       </c>
       <c r="W212" s="4" t="s">
-        <v>2471</v>
+        <v>2472</v>
       </c>
       <c r="X212" s="4" t="s">
-        <v>2472</v>
+        <v>2473</v>
       </c>
       <c r="Y212" s="5" t="s">
-        <v>2473</v>
+        <v>2474</v>
       </c>
       <c r="AA212" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB212" s="3" t="s">
-        <v>2466</v>
+        <v>2467</v>
       </c>
       <c r="AD212" s="3" t="s">
         <v>862</v>
       </c>
       <c r="AE212" s="6" t="s">
-        <v>2474</v>
+        <v>2475</v>
       </c>
       <c r="AF212" s="3" t="s">
         <v>49</v>
       </c>
       <c r="AG212" s="3" t="s">
-        <v>2475</v>
+        <v>2476</v>
       </c>
       <c r="AH212" s="3" t="s">
-        <v>2469</v>
+        <v>2470</v>
       </c>
       <c r="AI212" s="3" t="s">
         <v>208</v>
@@ -30860,13 +30863,13 @@
     </row>
     <row r="213" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A213" s="1" t="s">
-        <v>2476</v>
+        <v>2477</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C213" s="3" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="E213" s="4" t="s">
         <v>181</v>
@@ -30878,17 +30881,17 @@
         <v>489</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>2478</v>
+        <v>2479</v>
       </c>
       <c r="I213" s="0"/>
       <c r="J213" s="4" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="K213" s="4" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="L213" s="4" t="s">
-        <v>2480</v>
+        <v>2481</v>
       </c>
       <c r="M213" s="4" t="s">
         <v>67</v>
@@ -30916,7 +30919,7 @@
         <v>46</v>
       </c>
       <c r="AB213" s="3" t="s">
-        <v>2477</v>
+        <v>2478</v>
       </c>
       <c r="AD213" s="3" t="s">
         <v>181</v>
@@ -30932,7 +30935,7 @@
       </c>
       <c r="AH213" s="0"/>
       <c r="AI213" s="3" t="s">
-        <v>2479</v>
+        <v>2480</v>
       </c>
       <c r="AJ213" s="3" t="s">
         <v>550</v>
@@ -30962,10 +30965,10 @@
     </row>
     <row r="214" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A214" s="1" t="s">
-        <v>2481</v>
+        <v>2482</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C214" s="3" t="s">
         <v>1428</v>
@@ -30983,13 +30986,13 @@
         <v>220</v>
       </c>
       <c r="I214" s="4" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="J214" s="4" t="s">
         <v>669</v>
       </c>
       <c r="K214" s="4" t="s">
-        <v>2483</v>
+        <v>2484</v>
       </c>
       <c r="L214" s="4" t="s">
         <v>35</v>
@@ -31033,13 +31036,13 @@
         <v>229</v>
       </c>
       <c r="AH214" s="3" t="s">
-        <v>2482</v>
+        <v>2483</v>
       </c>
       <c r="AI214" s="3" t="s">
         <v>669</v>
       </c>
       <c r="AJ214" s="3" t="s">
-        <v>2484</v>
+        <v>2485</v>
       </c>
       <c r="AK214" s="3" t="s">
         <v>35</v>
@@ -31064,10 +31067,10 @@
     </row>
     <row r="215" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A215" s="1" t="s">
-        <v>2485</v>
+        <v>2486</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C215" s="3" t="s">
         <v>1428</v>
@@ -31076,7 +31079,7 @@
         <v>181</v>
       </c>
       <c r="F215" s="4" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="G215" s="4" t="s">
         <v>61</v>
@@ -31085,13 +31088,13 @@
         <v>315</v>
       </c>
       <c r="I215" s="4" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="J215" s="4" t="s">
         <v>442</v>
       </c>
       <c r="K215" s="4" t="s">
-        <v>2488</v>
+        <v>2489</v>
       </c>
       <c r="L215" s="4" t="s">
         <v>35</v>
@@ -31105,24 +31108,24 @@
         <v>547</v>
       </c>
       <c r="Q215" s="4" t="s">
-        <v>2489</v>
+        <v>2490</v>
       </c>
       <c r="R215" s="4" t="s">
-        <v>2490</v>
+        <v>2491</v>
       </c>
       <c r="S215" s="4" t="s">
-        <v>2491</v>
+        <v>2492</v>
       </c>
       <c r="T215" s="0"/>
       <c r="U215" s="0"/>
       <c r="V215" s="4" t="s">
-        <v>2492</v>
+        <v>2493</v>
       </c>
       <c r="W215" s="4" t="s">
-        <v>2493</v>
+        <v>2494</v>
       </c>
       <c r="X215" s="4" t="s">
-        <v>2494</v>
+        <v>2495</v>
       </c>
       <c r="AA215" s="2" t="s">
         <v>46</v>
@@ -31134,7 +31137,7 @@
         <v>181</v>
       </c>
       <c r="AE215" s="3" t="s">
-        <v>2486</v>
+        <v>2487</v>
       </c>
       <c r="AF215" s="3" t="s">
         <v>80</v>
@@ -31143,7 +31146,7 @@
         <v>152</v>
       </c>
       <c r="AH215" s="3" t="s">
-        <v>2487</v>
+        <v>2488</v>
       </c>
       <c r="AI215" s="3" t="s">
         <v>442</v>
@@ -31163,7 +31166,7 @@
         <v>551</v>
       </c>
       <c r="AP215" s="3" t="s">
-        <v>2495</v>
+        <v>2496</v>
       </c>
       <c r="AQ215" s="3" t="s">
         <v>657</v>
@@ -31176,82 +31179,82 @@
     </row>
     <row r="216" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A216" s="1" t="s">
-        <v>2496</v>
+        <v>2497</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>2241</v>
+        <v>2242</v>
       </c>
       <c r="C216" s="3" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="E216" s="4" t="s">
-        <v>2498</v>
+        <v>2499</v>
       </c>
       <c r="F216" s="4" t="s">
-        <v>2499</v>
+        <v>2500</v>
       </c>
       <c r="G216" s="4" t="s">
         <v>489</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>2500</v>
+        <v>2501</v>
       </c>
       <c r="I216" s="4" t="s">
-        <v>2501</v>
+        <v>2502</v>
       </c>
       <c r="J216" s="4" t="s">
         <v>458</v>
       </c>
       <c r="K216" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="L216" s="4" t="s">
-        <v>2502</v>
+        <v>2503</v>
       </c>
       <c r="M216" s="4" t="s">
-        <v>2503</v>
+        <v>2504</v>
       </c>
       <c r="N216" s="4" t="s">
         <v>602</v>
       </c>
       <c r="O216" s="4" t="s">
-        <v>2504</v>
+        <v>2505</v>
       </c>
       <c r="P216" s="4" t="s">
-        <v>2505</v>
+        <v>2506</v>
       </c>
       <c r="Q216" s="4" t="s">
-        <v>2506</v>
+        <v>2507</v>
       </c>
       <c r="S216" s="4" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="T216" s="4" t="s">
-        <v>2507</v>
+        <v>2508</v>
       </c>
       <c r="U216" s="4" t="s">
-        <v>2508</v>
+        <v>2509</v>
       </c>
       <c r="V216" s="4" t="s">
-        <v>2509</v>
+        <v>2510</v>
       </c>
       <c r="W216" s="4" t="s">
-        <v>2510</v>
+        <v>2511</v>
       </c>
       <c r="X216" s="4" t="s">
-        <v>2511</v>
+        <v>2512</v>
       </c>
       <c r="AA216" s="2" t="s">
         <v>46</v>
       </c>
       <c r="AB216" s="3" t="s">
-        <v>2497</v>
+        <v>2498</v>
       </c>
       <c r="AD216" s="3" t="s">
         <v>1260</v>
       </c>
       <c r="AE216" s="3" t="s">
-        <v>2512</v>
+        <v>2513</v>
       </c>
       <c r="AF216" s="3" t="s">
         <v>497</v>
@@ -31272,7 +31275,7 @@
         <v>602</v>
       </c>
       <c r="AN216" s="3" t="s">
-        <v>2513</v>
+        <v>2514</v>
       </c>
       <c r="AO216" s="3" t="s">
         <v>341</v>
